--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT2" t="n">
         <v>1.25</v>
@@ -1106,7 +1106,7 @@
         <v>1.56</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT5" t="n">
         <v>1.27</v>
@@ -1715,7 +1715,7 @@
         <v>1.47</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.07</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0.63</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT14" t="n">
         <v>0.47</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.75</v>
@@ -3948,7 +3948,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.19</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT23" t="n">
         <v>1.19</v>
@@ -5369,7 +5369,7 @@
         <v>1.47</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5572,7 +5572,7 @@
         <v>1.88</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU29" t="n">
         <v>1.27</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT32" t="n">
         <v>1.94</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU33" t="n">
         <v>1.02</v>
@@ -7399,7 +7399,7 @@
         <v>2.19</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU36" t="n">
         <v>0.9</v>
@@ -8008,7 +8008,7 @@
         <v>1.56</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU37" t="n">
         <v>1.06</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT39" t="n">
         <v>1.56</v>
@@ -9226,7 +9226,7 @@
         <v>2.07</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU45" t="n">
         <v>1.6</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU47" t="n">
         <v>1.21</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>1.27</v>
@@ -11053,7 +11053,7 @@
         <v>2.07</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11256,7 +11256,7 @@
         <v>1.13</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.29</v>
@@ -11459,7 +11459,7 @@
         <v>1.06</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT55" t="n">
         <v>0.75</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" t="n">
         <v>1.76</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.56</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU58" t="n">
         <v>1.35</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT59" t="n">
         <v>1.94</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>1.45</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU62" t="n">
         <v>1.62</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
         <v>1.27</v>
@@ -14098,7 +14098,7 @@
         <v>1.56</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU67" t="n">
         <v>1.04</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT69" t="n">
         <v>1.56</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT70" t="n">
         <v>1.25</v>
@@ -14907,7 +14907,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT71" t="n">
         <v>1.56</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15722,7 +15722,7 @@
         <v>1.06</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15922,7 +15922,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
         <v>1.19</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU77" t="n">
         <v>1.35</v>
@@ -16328,7 +16328,7 @@
         <v>2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT78" t="n">
         <v>1.94</v>
@@ -16534,7 +16534,7 @@
         <v>1.47</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU79" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>1.88</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -17549,7 +17549,7 @@
         <v>1.94</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU84" t="n">
         <v>1.87</v>
@@ -17749,10 +17749,10 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17955,7 +17955,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT87" t="n">
         <v>0.75</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.63</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18764,10 +18764,10 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT91" t="n">
         <v>1.27</v>
@@ -19173,7 +19173,7 @@
         <v>2.19</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU92" t="n">
         <v>1.88</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT94" t="n">
         <v>1.94</v>
@@ -19782,7 +19782,7 @@
         <v>1.56</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU95" t="n">
         <v>1.15</v>
@@ -20185,10 +20185,10 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -20591,10 +20591,10 @@
         <v>2.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -20794,7 +20794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT100" t="n">
         <v>1.56</v>
@@ -21000,7 +21000,7 @@
         <v>1.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU101" t="n">
         <v>1.46</v>
@@ -21203,7 +21203,7 @@
         <v>2.07</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21809,10 +21809,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU105" t="n">
         <v>1.54</v>
@@ -22012,10 +22012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT107" t="n">
         <v>0.47</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -22827,7 +22827,7 @@
         <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU110" t="n">
         <v>1.45</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT112" t="n">
         <v>1.56</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT113" t="n">
         <v>1.27</v>
@@ -23639,7 +23639,7 @@
         <v>1.88</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>1.19</v>
@@ -24042,10 +24042,10 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24451,7 +24451,7 @@
         <v>1.56</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.24</v>
@@ -24651,10 +24651,10 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU119" t="n">
         <v>1.26</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.25</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT123" t="n">
         <v>0.47</v>
@@ -25666,7 +25666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT124" t="n">
         <v>0.88</v>
@@ -25872,7 +25872,7 @@
         <v>1.75</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -26278,7 +26278,7 @@
         <v>1.94</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26481,7 +26481,7 @@
         <v>1.13</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU128" t="n">
         <v>1.53</v>
@@ -26684,7 +26684,7 @@
         <v>2.19</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU129" t="n">
         <v>1.77</v>
@@ -26884,10 +26884,10 @@
         <v>0.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU130" t="n">
         <v>1.5</v>
@@ -27087,10 +27087,10 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.19</v>
@@ -27696,10 +27696,10 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28308,7 +28308,7 @@
         <v>1.56</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU137" t="n">
         <v>1.26</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28914,7 +28914,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT140" t="n">
         <v>0.63</v>
@@ -29320,10 +29320,10 @@
         <v>1.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -29523,10 +29523,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29729,7 +29729,7 @@
         <v>1.94</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29929,10 +29929,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30538,10 +30538,10 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU148" t="n">
         <v>1.62</v>
@@ -30741,10 +30741,10 @@
         <v>0.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU149" t="n">
         <v>1.29</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1.25</v>
@@ -31553,7 +31553,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT153" t="n">
         <v>1.56</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT154" t="n">
         <v>0.88</v>
@@ -32368,7 +32368,7 @@
         <v>1.94</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32771,7 +32771,7 @@
         <v>1.88</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT159" t="n">
         <v>1.56</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU160" t="n">
         <v>1.47</v>
@@ -33180,7 +33180,7 @@
         <v>1.47</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33383,7 +33383,7 @@
         <v>2.07</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU162" t="n">
         <v>1.76</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT166" t="n">
         <v>1.19</v>
@@ -34398,7 +34398,7 @@
         <v>1.75</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34598,7 +34598,7 @@
         <v>2.13</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT168" t="n">
         <v>1.94</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35210,7 +35210,7 @@
         <v>1.13</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU171" t="n">
         <v>1.47</v>
@@ -35613,10 +35613,10 @@
         <v>1.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35819,7 +35819,7 @@
         <v>1.47</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU174" t="n">
         <v>1.34</v>
@@ -36022,7 +36022,7 @@
         <v>1.56</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU175" t="n">
         <v>1.5</v>
@@ -36222,7 +36222,7 @@
         <v>1.25</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT176" t="n">
         <v>0.88</v>
@@ -36425,7 +36425,7 @@
         <v>0.63</v>
       </c>
       <c r="AS177" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT177" t="n">
         <v>0.47</v>
@@ -37034,10 +37034,10 @@
         <v>1.75</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37237,7 +37237,7 @@
         <v>1.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT181" t="n">
         <v>1.27</v>
@@ -37440,10 +37440,10 @@
         <v>0.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU182" t="n">
         <v>1.53</v>
@@ -37846,10 +37846,10 @@
         <v>1.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU184" t="n">
         <v>1.58</v>
@@ -38049,10 +38049,10 @@
         <v>0.89</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU185" t="n">
         <v>1.19</v>
@@ -38255,7 +38255,7 @@
         <v>1.88</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU186" t="n">
         <v>1.52</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT188" t="n">
         <v>1.56</v>
@@ -39064,7 +39064,7 @@
         <v>0.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT190" t="n">
         <v>1.25</v>
@@ -39270,7 +39270,7 @@
         <v>1.94</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU191" t="n">
         <v>1.77</v>
@@ -39470,10 +39470,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU192" t="n">
         <v>1.68</v>
@@ -39879,7 +39879,7 @@
         <v>1.06</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU194" t="n">
         <v>1.27</v>
@@ -40082,7 +40082,7 @@
         <v>1.56</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU195" t="n">
         <v>1.33</v>
@@ -40285,7 +40285,7 @@
         <v>1.75</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU196" t="n">
         <v>1.3</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT197" t="n">
         <v>1.94</v>
@@ -40688,7 +40688,7 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT198" t="n">
         <v>0.75</v>
@@ -41297,7 +41297,7 @@
         <v>1.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT201" t="n">
         <v>1.56</v>
@@ -41706,7 +41706,7 @@
         <v>1.88</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU203" t="n">
         <v>1.55</v>
@@ -41909,7 +41909,7 @@
         <v>1.94</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU204" t="n">
         <v>1.73</v>
@@ -42109,7 +42109,7 @@
         <v>0.9</v>
       </c>
       <c r="AS205" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT205" t="n">
         <v>1.19</v>
@@ -42315,7 +42315,7 @@
         <v>1.75</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU206" t="n">
         <v>1.29</v>
@@ -42515,7 +42515,7 @@
         <v>1.2</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT207" t="n">
         <v>1</v>
@@ -42924,7 +42924,7 @@
         <v>1.13</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU209" t="n">
         <v>1.4</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT210" t="n">
         <v>0.47</v>
@@ -43327,10 +43327,10 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU211" t="n">
         <v>1.36</v>
@@ -43530,7 +43530,7 @@
         <v>1.5</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT212" t="n">
         <v>1.56</v>
@@ -43736,7 +43736,7 @@
         <v>1.56</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU213" t="n">
         <v>1.47</v>
@@ -43939,7 +43939,7 @@
         <v>2.19</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU214" t="n">
         <v>1.78</v>
@@ -44139,7 +44139,7 @@
         <v>0.6</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT215" t="n">
         <v>0.63</v>
@@ -44545,7 +44545,7 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT217" t="n">
         <v>1.56</v>
@@ -44954,7 +44954,7 @@
         <v>1.06</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU219" t="n">
         <v>1.27</v>
@@ -45154,7 +45154,7 @@
         <v>1.1</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT220" t="n">
         <v>0.75</v>
@@ -45357,10 +45357,10 @@
         <v>1.4</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU221" t="n">
         <v>1.77</v>
@@ -45560,7 +45560,7 @@
         <v>0.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT222" t="n">
         <v>0.47</v>
@@ -45766,7 +45766,7 @@
         <v>1.06</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU223" t="n">
         <v>1.24</v>
@@ -46172,7 +46172,7 @@
         <v>2</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -46375,7 +46375,7 @@
         <v>1.13</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU226" t="n">
         <v>1.4</v>
@@ -46575,7 +46575,7 @@
         <v>1.64</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT227" t="n">
         <v>1.56</v>
@@ -46981,7 +46981,7 @@
         <v>1</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT229" t="n">
         <v>0.75</v>
@@ -47187,7 +47187,7 @@
         <v>1.88</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU230" t="n">
         <v>1.56</v>
@@ -47590,7 +47590,7 @@
         <v>1</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT232" t="n">
         <v>0.88</v>
@@ -47796,7 +47796,7 @@
         <v>1.56</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU233" t="n">
         <v>1.47</v>
@@ -47996,7 +47996,7 @@
         <v>1.36</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT234" t="n">
         <v>1</v>
@@ -48199,10 +48199,10 @@
         <v>1.55</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU235" t="n">
         <v>1.25</v>
@@ -48405,7 +48405,7 @@
         <v>1.56</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU236" t="n">
         <v>1.31</v>
@@ -48608,7 +48608,7 @@
         <v>2</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU237" t="n">
         <v>1.52</v>
@@ -49011,7 +49011,7 @@
         <v>0.82</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT239" t="n">
         <v>0.63</v>
@@ -49623,7 +49623,7 @@
         <v>1.13</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU242" t="n">
         <v>1.44</v>
@@ -49823,7 +49823,7 @@
         <v>1.08</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT243" t="n">
         <v>1.19</v>
@@ -50029,7 +50029,7 @@
         <v>1.88</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU244" t="n">
         <v>1.57</v>
@@ -50229,10 +50229,10 @@
         <v>1.25</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU245" t="n">
         <v>1.5</v>
@@ -50635,7 +50635,7 @@
         <v>0.75</v>
       </c>
       <c r="AS247" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT247" t="n">
         <v>0.63</v>
@@ -50841,7 +50841,7 @@
         <v>1.06</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU248" t="n">
         <v>1.22</v>
@@ -51244,7 +51244,7 @@
         <v>1.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
         <v>1.56</v>
@@ -51653,7 +51653,7 @@
         <v>1.56</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU252" t="n">
         <v>1.48</v>
@@ -51853,10 +51853,10 @@
         <v>1.5</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -52056,10 +52056,10 @@
         <v>1.58</v>
       </c>
       <c r="AS254" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU254" t="n">
         <v>1.44</v>
@@ -52259,7 +52259,7 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT255" t="n">
         <v>1.19</v>
@@ -52462,10 +52462,10 @@
         <v>1.17</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU256" t="n">
         <v>1.31</v>
@@ -52668,7 +52668,7 @@
         <v>2</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU257" t="n">
         <v>1.56</v>
@@ -52868,7 +52868,7 @@
         <v>1.33</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT258" t="n">
         <v>1.27</v>
@@ -53071,7 +53071,7 @@
         <v>1.17</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT259" t="n">
         <v>0.88</v>
@@ -53277,7 +53277,7 @@
         <v>2.19</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU260" t="n">
         <v>1.83</v>
@@ -53680,7 +53680,7 @@
         <v>1.25</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT262" t="n">
         <v>1</v>
@@ -53883,7 +53883,7 @@
         <v>1.46</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT263" t="n">
         <v>1.56</v>
@@ -54089,7 +54089,7 @@
         <v>1.06</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU264" t="n">
         <v>1.24</v>
@@ -54292,7 +54292,7 @@
         <v>1.56</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -54695,7 +54695,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT267" t="n">
         <v>0.63</v>
@@ -54901,7 +54901,7 @@
         <v>1.47</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU268" t="n">
         <v>1.37</v>
@@ -55507,7 +55507,7 @@
         <v>1.23</v>
       </c>
       <c r="AS271" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT271" t="n">
         <v>1</v>
@@ -55710,7 +55710,7 @@
         <v>1</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT272" t="n">
         <v>1.25</v>
@@ -55913,10 +55913,10 @@
         <v>1.31</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -56116,10 +56116,10 @@
         <v>1.23</v>
       </c>
       <c r="AS274" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU274" t="n">
         <v>1.46</v>
@@ -56322,7 +56322,7 @@
         <v>1.56</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU275" t="n">
         <v>1.51</v>
@@ -56522,7 +56522,7 @@
         <v>1.08</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT276" t="n">
         <v>0.88</v>
@@ -56725,10 +56725,10 @@
         <v>1.69</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU277" t="n">
         <v>1.4</v>
@@ -56931,7 +56931,7 @@
         <v>2.19</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU278" t="n">
         <v>1.84</v>
@@ -57337,7 +57337,7 @@
         <v>2.07</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU280" t="n">
         <v>1.63</v>
@@ -57537,7 +57537,7 @@
         <v>0.93</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT281" t="n">
         <v>1.19</v>
@@ -57740,7 +57740,7 @@
         <v>0.64</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT282" t="n">
         <v>0.63</v>
@@ -58352,7 +58352,7 @@
         <v>1.06</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU285" t="n">
         <v>1.24</v>
@@ -58961,7 +58961,7 @@
         <v>2</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU288" t="n">
         <v>1.62</v>
@@ -59161,7 +59161,7 @@
         <v>1.79</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT289" t="n">
         <v>1.94</v>
@@ -59773,7 +59773,7 @@
         <v>2.07</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU292" t="n">
         <v>1.66</v>
@@ -59973,10 +59973,10 @@
         <v>0.47</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU293" t="n">
         <v>1.63</v>
@@ -60176,10 +60176,10 @@
         <v>1.64</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU294" t="n">
         <v>1.5</v>
@@ -60382,7 +60382,7 @@
         <v>1.56</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU295" t="n">
         <v>1.53</v>
@@ -60582,7 +60582,7 @@
         <v>1.14</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT296" t="n">
         <v>1.27</v>
@@ -60785,7 +60785,7 @@
         <v>1</v>
       </c>
       <c r="AS297" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT297" t="n">
         <v>1.25</v>
@@ -60988,10 +60988,10 @@
         <v>1.29</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU298" t="n">
         <v>1.29</v>
@@ -61191,10 +61191,10 @@
         <v>1.43</v>
       </c>
       <c r="AS299" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT299" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AT299" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU299" t="n">
         <v>1.28</v>
@@ -61394,10 +61394,10 @@
         <v>1.71</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU300" t="n">
         <v>1.53</v>
@@ -61597,10 +61597,10 @@
         <v>0.64</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT301" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU301" t="n">
         <v>1.38</v>
@@ -63682,6 +63682,1833 @@
       </c>
       <c r="BK311" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2468611</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45038.41666666666</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>3</v>
+      </c>
+      <c r="K312" t="n">
+        <v>4</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>3</v>
+      </c>
+      <c r="N312" t="n">
+        <v>4</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['10', '12', '26']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>2</v>
+      </c>
+      <c r="R312" t="n">
+        <v>6</v>
+      </c>
+      <c r="S312" t="n">
+        <v>8</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2468612</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>3</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['53', '59', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>8</v>
+      </c>
+      <c r="R313" t="n">
+        <v>3</v>
+      </c>
+      <c r="S313" t="n">
+        <v>11</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2468613</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>2</v>
+      </c>
+      <c r="L314" t="n">
+        <v>2</v>
+      </c>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
+      <c r="N314" t="n">
+        <v>3</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['7', '29']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="n">
+        <v>10</v>
+      </c>
+      <c r="S314" t="n">
+        <v>10</v>
+      </c>
+      <c r="T314" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U314" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V314" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X314" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2468614</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="n">
+        <v>3</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>3</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['41', '81', '84']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>7</v>
+      </c>
+      <c r="R315" t="n">
+        <v>12</v>
+      </c>
+      <c r="S315" t="n">
+        <v>19</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V315" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X315" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2468615</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>2</v>
+      </c>
+      <c r="N316" t="n">
+        <v>2</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['52', '71']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>8</v>
+      </c>
+      <c r="R316" t="n">
+        <v>2</v>
+      </c>
+      <c r="S316" t="n">
+        <v>10</v>
+      </c>
+      <c r="T316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V316" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2468616</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F317" t="n">
+        <v>32</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>2</v>
+      </c>
+      <c r="K317" t="n">
+        <v>2</v>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="n">
+        <v>2</v>
+      </c>
+      <c r="N317" t="n">
+        <v>3</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>['13', '32']</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>5</v>
+      </c>
+      <c r="R317" t="n">
+        <v>4</v>
+      </c>
+      <c r="S317" t="n">
+        <v>9</v>
+      </c>
+      <c r="T317" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V317" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X317" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2468617</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F318" t="n">
+        <v>32</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="n">
+        <v>1</v>
+      </c>
+      <c r="N318" t="n">
+        <v>2</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>10</v>
+      </c>
+      <c r="R318" t="n">
+        <v>1</v>
+      </c>
+      <c r="S318" t="n">
+        <v>11</v>
+      </c>
+      <c r="T318" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U318" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V318" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X318" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2468618</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F319" t="n">
+        <v>32</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1</v>
+      </c>
+      <c r="K319" t="n">
+        <v>2</v>
+      </c>
+      <c r="L319" t="n">
+        <v>2</v>
+      </c>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
+      <c r="N319" t="n">
+        <v>3</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>['14', '73']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>6</v>
+      </c>
+      <c r="R319" t="n">
+        <v>2</v>
+      </c>
+      <c r="S319" t="n">
+        <v>8</v>
+      </c>
+      <c r="T319" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U319" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V319" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X319" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2468619</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45038.58333333334</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>4</v>
+      </c>
+      <c r="R320" t="n">
+        <v>3</v>
+      </c>
+      <c r="S320" t="n">
+        <v>7</v>
+      </c>
+      <c r="T320" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U320" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V320" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X320" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK320"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.13</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT7" t="n">
         <v>0.75</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT30" t="n">
         <v>0.63</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT52" t="n">
         <v>1.19</v>
@@ -13286,7 +13286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT81" t="n">
         <v>0.47</v>
@@ -18970,7 +18970,7 @@
         <v>1.56</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT102" t="n">
         <v>1.75</v>
@@ -23436,7 +23436,7 @@
         <v>1.06</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -26072,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT126" t="n">
         <v>0.75</v>
@@ -28105,7 +28105,7 @@
         <v>1.06</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -30335,7 +30335,7 @@
         <v>1.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT147" t="n">
         <v>1.19</v>
@@ -31962,7 +31962,7 @@
         <v>1.56</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -33380,7 +33380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT162" t="n">
         <v>1.31</v>
@@ -37240,7 +37240,7 @@
         <v>1.31</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU181" t="n">
         <v>1.51</v>
@@ -38458,7 +38458,7 @@
         <v>1.13</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU187" t="n">
         <v>1.42</v>
@@ -38861,7 +38861,7 @@
         <v>1.22</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT189" t="n">
         <v>1</v>
@@ -41500,7 +41500,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT202" t="n">
         <v>1.94</v>
@@ -44345,7 +44345,7 @@
         <v>1.47</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU216" t="n">
         <v>1.36</v>
@@ -47387,7 +47387,7 @@
         <v>1.58</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT231" t="n">
         <v>1.56</v>
@@ -48811,7 +48811,7 @@
         <v>2.19</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -51447,7 +51447,7 @@
         <v>1</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT251" t="n">
         <v>1.25</v>
@@ -52871,7 +52871,7 @@
         <v>1.41</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU258" t="n">
         <v>1.24</v>
@@ -57134,7 +57134,7 @@
         <v>1.94</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU279" t="n">
         <v>1.7</v>
@@ -57334,7 +57334,7 @@
         <v>0.5</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT280" t="n">
         <v>0.41</v>
@@ -59770,7 +59770,7 @@
         <v>1.36</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT292" t="n">
         <v>1.25</v>
@@ -60585,7 +60585,7 @@
         <v>1.25</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU296" t="n">
         <v>1.46</v>
@@ -65509,6 +65509,209 @@
       </c>
       <c r="BK320" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3168638</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45040.65625</v>
+      </c>
+      <c r="F321" t="n">
+        <v>32</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>1</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="n">
+        <v>3</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>3</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['42', '57', '64']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>6</v>
+      </c>
+      <c r="R321" t="n">
+        <v>5</v>
+      </c>
+      <c r="S321" t="n">
+        <v>11</v>
+      </c>
+      <c r="T321" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V321" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X321" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4151,7 +4151,7 @@
         <v>1.56</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT21" t="n">
         <v>1.75</v>
@@ -6993,7 +6993,7 @@
         <v>1.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>2.15</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.87</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT61" t="n">
         <v>1.19</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>1.06</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.64</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT92" t="n">
         <v>1.19</v>
@@ -19579,7 +19579,7 @@
         <v>1.41</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.47</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT104" t="n">
         <v>0.63</v>
@@ -24248,7 +24248,7 @@
         <v>1.06</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.58</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT129" t="n">
         <v>1.44</v>
@@ -27902,7 +27902,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT150" t="n">
         <v>0.75</v>
@@ -31150,7 +31150,7 @@
         <v>1.13</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -34601,7 +34601,7 @@
         <v>1.13</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -35410,7 +35410,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT172" t="n">
         <v>1.56</v>
@@ -40488,7 +40488,7 @@
         <v>1.5</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU197" t="n">
         <v>1.75</v>
@@ -41094,7 +41094,7 @@
         <v>1.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT200" t="n">
         <v>0.88</v>
@@ -41503,7 +41503,7 @@
         <v>2.13</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU202" t="n">
         <v>1.67</v>
@@ -43936,7 +43936,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT214" t="n">
         <v>1.25</v>
@@ -45969,7 +45969,7 @@
         <v>1.94</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU224" t="n">
         <v>1.73</v>
@@ -48808,7 +48808,7 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT238" t="n">
         <v>1.19</v>
@@ -49420,7 +49420,7 @@
         <v>1.75</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU241" t="n">
         <v>1.39</v>
@@ -53274,7 +53274,7 @@
         <v>1.42</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT260" t="n">
         <v>1.31</v>
@@ -55307,7 +55307,7 @@
         <v>1.88</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU270" t="n">
         <v>1.59</v>
@@ -56928,7 +56928,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT278" t="n">
         <v>0.75</v>
@@ -59164,7 +59164,7 @@
         <v>1.31</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU289" t="n">
         <v>1.55</v>
@@ -59364,7 +59364,7 @@
         <v>0.46</v>
       </c>
       <c r="AS290" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT290" t="n">
         <v>0.47</v>
@@ -62409,7 +62409,7 @@
         <v>1.67</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AT305" t="n">
         <v>1.56</v>
@@ -63224,7 +63224,7 @@
         <v>1.47</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU309" t="n">
         <v>1.43</v>
@@ -65712,6 +65712,209 @@
       </c>
       <c r="BK321" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2468627</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45045.40625</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>2</v>
+      </c>
+      <c r="N322" t="n">
+        <v>3</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['42', '56']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>8</v>
+      </c>
+      <c r="R322" t="n">
+        <v>11</v>
+      </c>
+      <c r="S322" t="n">
+        <v>19</v>
+      </c>
+      <c r="T322" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U322" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X322" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK330"/>
+  <dimension ref="A1:BK331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT11" t="n">
         <v>1.53</v>
@@ -3339,7 +3339,7 @@
         <v>1.31</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>1.82</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU42" t="n">
         <v>1.46</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT48" t="n">
         <v>0.59</v>
@@ -13489,7 +13489,7 @@
         <v>1.94</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT66" t="n">
         <v>0.82</v>
@@ -16940,7 +16940,7 @@
         <v>2.13</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU81" t="n">
         <v>1.45</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT84" t="n">
         <v>0.41</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT111" t="n">
         <v>1.24</v>
@@ -25466,7 +25466,7 @@
         <v>1.06</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT127" t="n">
         <v>1.19</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT144" t="n">
         <v>1.25</v>
@@ -30135,7 +30135,7 @@
         <v>1.82</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU146" t="n">
         <v>1.3</v>
@@ -32365,7 +32365,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT157" t="n">
         <v>1.44</v>
@@ -33789,7 +33789,7 @@
         <v>1.06</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU164" t="n">
         <v>1.32</v>
@@ -36428,7 +36428,7 @@
         <v>1.13</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU177" t="n">
         <v>1.23</v>
@@ -39267,7 +39267,7 @@
         <v>0.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT191" t="n">
         <v>1.06</v>
@@ -41906,7 +41906,7 @@
         <v>0.8</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT204" t="n">
         <v>0.75</v>
@@ -43127,7 +43127,7 @@
         <v>1.25</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU210" t="n">
         <v>1.51</v>
@@ -45563,7 +45563,7 @@
         <v>1.56</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU222" t="n">
         <v>1.7</v>
@@ -45966,7 +45966,7 @@
         <v>2</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT224" t="n">
         <v>2</v>
@@ -50432,7 +50432,7 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT246" t="n">
         <v>0.76</v>
@@ -51044,7 +51044,7 @@
         <v>1.47</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU249" t="n">
         <v>1.3</v>
@@ -53477,7 +53477,7 @@
         <v>1.62</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT261" t="n">
         <v>1.65</v>
@@ -55104,7 +55104,7 @@
         <v>1.24</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU269" t="n">
         <v>1.42</v>
@@ -57131,7 +57131,7 @@
         <v>1.23</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT279" t="n">
         <v>1.19</v>
@@ -59367,7 +59367,7 @@
         <v>2.06</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU290" t="n">
         <v>1.83</v>
@@ -62818,7 +62818,7 @@
         <v>1.53</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AU307" t="n">
         <v>1.53</v>
@@ -63424,7 +63424,7 @@
         <v>1.07</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT310" t="n">
         <v>1.12</v>
@@ -67539,6 +67539,209 @@
       </c>
       <c r="BK330" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2468622</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45047.65625</v>
+      </c>
+      <c r="F331" t="n">
+        <v>33</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>2</v>
+      </c>
+      <c r="K331" t="n">
+        <v>2</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>2</v>
+      </c>
+      <c r="N331" t="n">
+        <v>2</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['33', '39']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>3</v>
+      </c>
+      <c r="R331" t="n">
+        <v>6</v>
+      </c>
+      <c r="S331" t="n">
+        <v>9</v>
+      </c>
+      <c r="T331" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2</v>
+      </c>
+      <c r="V331" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X331" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK340"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.53</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT5" t="n">
         <v>1.12</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT23" t="n">
         <v>1.12</v>
@@ -5369,7 +5369,7 @@
         <v>1.53</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.94</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU45" t="n">
         <v>1.6</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>1.24</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT87" t="n">
         <v>0.76</v>
@@ -21000,7 +21000,7 @@
         <v>1.24</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU101" t="n">
         <v>1.46</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT105" t="n">
         <v>1.18</v>
@@ -22015,7 +22015,7 @@
         <v>1.24</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -26684,7 +26684,7 @@
         <v>2.06</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU129" t="n">
         <v>1.77</v>
@@ -27087,7 +27087,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT131" t="n">
         <v>1.82</v>
@@ -29323,7 +29323,7 @@
         <v>1.65</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -31553,7 +31553,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT153" t="n">
         <v>1.65</v>
@@ -32368,7 +32368,7 @@
         <v>1.82</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -35613,7 +35613,7 @@
         <v>1.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT173" t="n">
         <v>1.24</v>
@@ -37440,7 +37440,7 @@
         <v>0.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT182" t="n">
         <v>0.41</v>
@@ -37849,7 +37849,7 @@
         <v>1.35</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU184" t="n">
         <v>1.58</v>
@@ -41706,7 +41706,7 @@
         <v>1.82</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU203" t="n">
         <v>1.55</v>
@@ -44545,7 +44545,7 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT217" t="n">
         <v>1.53</v>
@@ -48405,7 +48405,7 @@
         <v>1.47</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU236" t="n">
         <v>1.31</v>
@@ -49011,7 +49011,7 @@
         <v>0.82</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT239" t="n">
         <v>0.59</v>
@@ -52465,7 +52465,7 @@
         <v>1</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU256" t="n">
         <v>1.31</v>
@@ -53071,7 +53071,7 @@
         <v>1.17</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT259" t="n">
         <v>0.82</v>
@@ -55710,7 +55710,7 @@
         <v>1</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT272" t="n">
         <v>1.24</v>
@@ -55916,7 +55916,7 @@
         <v>1.59</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -60176,7 +60176,7 @@
         <v>1.64</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT294" t="n">
         <v>1.41</v>
@@ -61194,7 +61194,7 @@
         <v>1.41</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU299" t="n">
         <v>1.28</v>
@@ -64036,7 +64036,7 @@
         <v>1.47</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU313" t="n">
         <v>1.37</v>
@@ -65454,7 +65454,7 @@
         <v>1.2</v>
       </c>
       <c r="AS320" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT320" t="n">
         <v>1.29</v>
@@ -68967,7 +68967,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>2468630</v>
+        <v>2468631</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -68987,182 +68987,182 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J338" t="n">
         <v>0</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
       <c r="N338" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['17', '24']</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q338" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R338" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S338" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T338" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U338" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V338" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W338" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X338" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Y338" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z338" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AA338" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB338" t="n">
         <v>1.05</v>
       </c>
       <c r="AC338" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="AD338" t="n">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="AE338" t="n">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="AF338" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AG338" t="n">
-        <v>8.35</v>
+        <v>6.5</v>
       </c>
       <c r="AH338" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AI338" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="AJ338" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AK338" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AL338" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AM338" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AN338" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AO338" t="n">
         <v>1.35</v>
       </c>
       <c r="AP338" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AQ338" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR338" t="n">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AT338" t="n">
-        <v>0.65</v>
+        <v>1.18</v>
       </c>
       <c r="AU338" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AV338" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AW338" t="n">
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="AX338" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AY338" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ338" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BA338" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BB338" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="BC338" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="BD338" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BE338" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="BF338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ338" t="n">
         <v>6</v>
       </c>
-      <c r="BG338" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH338" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI338" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ338" t="n">
-        <v>9</v>
-      </c>
       <c r="BK338" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339">
@@ -69170,7 +69170,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>2468629</v>
+        <v>2468630</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -69190,182 +69190,182 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Saint-Étienne</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N339" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>['21', '82', '88']</t>
+          <t>['86']</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>['12', '45']</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="Q339" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R339" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S339" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T339" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ339" t="n">
         <v>2.1</v>
       </c>
-      <c r="U339" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V339" t="n">
-        <v>5</v>
-      </c>
-      <c r="W339" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X339" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y339" t="n">
+      <c r="BA339" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC339" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z339" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA339" t="n">
+      <c r="BD339" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF339" t="n">
         <v>6</v>
       </c>
-      <c r="AB339" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC339" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AD339" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AE339" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="AF339" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG339" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH339" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI339" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ339" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AK339" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AL339" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AM339" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN339" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AO339" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AP339" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AQ339" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AR339" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS339" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AT339" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AU339" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AV339" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW339" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AX339" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AY339" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AZ339" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BA339" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB339" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BC339" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BD339" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BE339" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BF339" t="n">
-        <v>10</v>
-      </c>
       <c r="BG339" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH339" t="n">
         <v>3</v>
       </c>
       <c r="BI339" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ339" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BK339" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -69373,7 +69373,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>2468631</v>
+        <v>2468629</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -69393,149 +69393,149 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="I340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N340" t="n">
+        <v>5</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['21', '82', '88']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['12', '45']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>4</v>
+      </c>
+      <c r="R340" t="n">
+        <v>4</v>
+      </c>
+      <c r="S340" t="n">
+        <v>8</v>
+      </c>
+      <c r="T340" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V340" t="n">
+        <v>5</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X340" t="n">
         <v>3</v>
       </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>['17', '24']</t>
-        </is>
-      </c>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>['72']</t>
-        </is>
-      </c>
-      <c r="Q340" t="n">
-        <v>2</v>
-      </c>
-      <c r="R340" t="n">
-        <v>8</v>
-      </c>
-      <c r="S340" t="n">
-        <v>10</v>
-      </c>
-      <c r="T340" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U340" t="n">
+      <c r="Y340" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM340" t="n">
         <v>1.93</v>
       </c>
-      <c r="V340" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W340" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X340" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Y340" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z340" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA340" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB340" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC340" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AD340" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE340" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AF340" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG340" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH340" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI340" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AJ340" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK340" t="n">
+      <c r="AN340" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR340" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL340" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM340" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AN340" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO340" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP340" t="n">
+      <c r="AS340" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT340" t="n">
         <v>1.41</v>
       </c>
-      <c r="AQ340" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR340" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS340" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT340" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AU340" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="AV340" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AW340" t="n">
-        <v>2.85</v>
+        <v>3.06</v>
       </c>
       <c r="AX340" t="n">
-        <v>1.86</v>
+        <v>1.34</v>
       </c>
       <c r="AY340" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="AZ340" t="n">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="BA340" t="n">
         <v>1.4</v>
@@ -69550,25 +69550,228 @@
         <v>3.1</v>
       </c>
       <c r="BE340" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BF340" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG340" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI340" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ340" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK340" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2468637</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45054.65625</v>
+      </c>
+      <c r="F341" t="n">
+        <v>34</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>1</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>6</v>
+      </c>
+      <c r="R341" t="n">
+        <v>3</v>
+      </c>
+      <c r="S341" t="n">
+        <v>9</v>
+      </c>
+      <c r="T341" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V341" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X341" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1.35</v>
@@ -1309,7 +1309,7 @@
         <v>1.24</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.18</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>0.82</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.65</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.06</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT21" t="n">
         <v>1.82</v>
@@ -4963,7 +4963,7 @@
         <v>1.24</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5166,7 +5166,7 @@
         <v>2.18</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU23" t="n">
         <v>1.12</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT25" t="n">
         <v>0.76</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU27" t="n">
         <v>1.59</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT28" t="n">
         <v>0.82</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>2.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -6993,7 +6993,7 @@
         <v>1.65</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU32" t="n">
         <v>2.15</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT37" t="n">
         <v>1.29</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT38" t="n">
         <v>1.82</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>2.51</v>
@@ -8820,7 +8820,7 @@
         <v>1.82</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU41" t="n">
         <v>1.49</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT42" t="n">
         <v>0.65</v>
@@ -9226,7 +9226,7 @@
         <v>2.18</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9429,7 +9429,7 @@
         <v>2.18</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU44" t="n">
         <v>1.31</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>1.35</v>
@@ -9832,10 +9832,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU46" t="n">
         <v>0.79</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU48" t="n">
         <v>1.67</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT55" t="n">
         <v>0.76</v>
@@ -12068,7 +12068,7 @@
         <v>1.59</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.27</v>
@@ -12271,7 +12271,7 @@
         <v>1.82</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU58" t="n">
         <v>1.35</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU59" t="n">
         <v>1.87</v>
@@ -12877,10 +12877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13286,7 +13286,7 @@
         <v>1.59</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.65</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT65" t="n">
         <v>0.76</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT66" t="n">
         <v>0.82</v>
@@ -14095,10 +14095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU67" t="n">
         <v>1.04</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU68" t="n">
         <v>1.56</v>
@@ -14504,7 +14504,7 @@
         <v>1.24</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14707,7 +14707,7 @@
         <v>1.24</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -14910,7 +14910,7 @@
         <v>1.65</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT72" t="n">
         <v>1.24</v>
@@ -15316,7 +15316,7 @@
         <v>1.82</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.4</v>
@@ -15516,10 +15516,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU74" t="n">
         <v>1.97</v>
@@ -15922,10 +15922,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU76" t="n">
         <v>1.54</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT77" t="n">
         <v>1.29</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.64</v>
@@ -16734,10 +16734,10 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -17143,7 +17143,7 @@
         <v>1.24</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU82" t="n">
         <v>1.45</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
         <v>0.82</v>
@@ -17546,10 +17546,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU84" t="n">
         <v>1.87</v>
@@ -18361,7 +18361,7 @@
         <v>1.59</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18561,7 +18561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.82</v>
@@ -18970,7 +18970,7 @@
         <v>1.65</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT92" t="n">
         <v>1.29</v>
@@ -19376,7 +19376,7 @@
         <v>1.53</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU93" t="n">
         <v>1.39</v>
@@ -19576,10 +19576,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU94" t="n">
         <v>1.47</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT95" t="n">
         <v>1.24</v>
@@ -19985,7 +19985,7 @@
         <v>1.06</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT97" t="n">
         <v>1.18</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -20794,10 +20794,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU104" t="n">
         <v>1.86</v>
@@ -22824,10 +22824,10 @@
         <v>0.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU110" t="n">
         <v>1.45</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU111" t="n">
         <v>1.95</v>
@@ -23233,7 +23233,7 @@
         <v>1.65</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT114" t="n">
         <v>1.24</v>
@@ -23839,10 +23839,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24042,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24248,7 +24248,7 @@
         <v>1.06</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU117" t="n">
         <v>1.58</v>
@@ -24448,10 +24448,10 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.24</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
         <v>1.29</v>
@@ -24857,7 +24857,7 @@
         <v>1.53</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,10 +25057,10 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU121" t="n">
         <v>1.57</v>
@@ -25263,7 +25263,7 @@
         <v>1.59</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU122" t="n">
         <v>1.68</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT127" t="n">
         <v>1.29</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT129" t="n">
         <v>1.35</v>
@@ -26887,7 +26887,7 @@
         <v>1.24</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU130" t="n">
         <v>1.5</v>
@@ -27293,7 +27293,7 @@
         <v>1.53</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU132" t="n">
         <v>1.4</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.19</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT134" t="n">
         <v>1.24</v>
@@ -27899,10 +27899,10 @@
         <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -28105,7 +28105,7 @@
         <v>1.06</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -28305,7 +28305,7 @@
         <v>0.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28508,10 +28508,10 @@
         <v>1.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28714,7 +28714,7 @@
         <v>1.24</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU139" t="n">
         <v>1.54</v>
@@ -28914,10 +28914,10 @@
         <v>0.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU140" t="n">
         <v>1.59</v>
@@ -29117,10 +29117,10 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT143" t="n">
         <v>0.76</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT144" t="n">
         <v>1.18</v>
@@ -30338,7 +30338,7 @@
         <v>2.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU147" t="n">
         <v>1.56</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU149" t="n">
         <v>1.29</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT150" t="n">
         <v>0.76</v>
@@ -31150,7 +31150,7 @@
         <v>1.24</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -31350,10 +31350,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -31556,7 +31556,7 @@
         <v>2.18</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU153" t="n">
         <v>1.57</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT154" t="n">
         <v>0.82</v>
@@ -31959,10 +31959,10 @@
         <v>1.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32162,10 +32162,10 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32365,7 +32365,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT157" t="n">
         <v>1.35</v>
@@ -32568,10 +32568,10 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU158" t="n">
         <v>1.21</v>
@@ -32774,7 +32774,7 @@
         <v>1.24</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU159" t="n">
         <v>1.47</v>
@@ -32974,7 +32974,7 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
         <v>1</v>
@@ -33180,7 +33180,7 @@
         <v>1.53</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT165" t="n">
         <v>0.76</v>
@@ -34195,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>1.24</v>
       </c>
       <c r="AT168" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT169" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35410,10 +35410,10 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -36019,7 +36019,7 @@
         <v>1</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT175" t="n">
         <v>1.18</v>
@@ -36631,7 +36631,7 @@
         <v>1.06</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU178" t="n">
         <v>1.28</v>
@@ -36831,7 +36831,7 @@
         <v>1.13</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT179" t="n">
         <v>0.76</v>
@@ -37037,7 +37037,7 @@
         <v>1.59</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37240,7 +37240,7 @@
         <v>1.24</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU181" t="n">
         <v>1.51</v>
@@ -37443,7 +37443,7 @@
         <v>2.18</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU182" t="n">
         <v>1.53</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU183" t="n">
         <v>1.49</v>
@@ -37846,7 +37846,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT184" t="n">
         <v>1.35</v>
@@ -38049,7 +38049,7 @@
         <v>0.89</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT185" t="n">
         <v>0.76</v>
@@ -38252,7 +38252,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT186" t="n">
         <v>1.29</v>
@@ -38458,7 +38458,7 @@
         <v>1.24</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU187" t="n">
         <v>1.42</v>
@@ -38658,10 +38658,10 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU188" t="n">
         <v>1.37</v>
@@ -38864,7 +38864,7 @@
         <v>2.18</v>
       </c>
       <c r="AT189" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39067,7 +39067,7 @@
         <v>1</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU190" t="n">
         <v>1.37</v>
@@ -39267,7 +39267,7 @@
         <v>0.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT191" t="n">
         <v>1</v>
@@ -39673,10 +39673,10 @@
         <v>1.8</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -39879,7 +39879,7 @@
         <v>1.06</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU194" t="n">
         <v>1.27</v>
@@ -40079,7 +40079,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT195" t="n">
         <v>1.82</v>
@@ -40488,7 +40488,7 @@
         <v>1.59</v>
       </c>
       <c r="AT197" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU197" t="n">
         <v>1.75</v>
@@ -40894,7 +40894,7 @@
         <v>1.53</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41094,7 +41094,7 @@
         <v>1.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT200" t="n">
         <v>0.82</v>
@@ -41297,10 +41297,10 @@
         <v>1.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU201" t="n">
         <v>1.19</v>
@@ -41503,7 +41503,7 @@
         <v>2.18</v>
       </c>
       <c r="AT202" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU202" t="n">
         <v>1.67</v>
@@ -41703,7 +41703,7 @@
         <v>1.2</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT203" t="n">
         <v>1.35</v>
@@ -41906,7 +41906,7 @@
         <v>0.8</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT204" t="n">
         <v>0.76</v>
@@ -42112,7 +42112,7 @@
         <v>1.24</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU205" t="n">
         <v>1.28</v>
@@ -42518,7 +42518,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU207" t="n">
         <v>1.4</v>
@@ -42718,10 +42718,10 @@
         <v>0.9</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU208" t="n">
         <v>1.53</v>
@@ -42924,7 +42924,7 @@
         <v>1.24</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU209" t="n">
         <v>1.4</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT210" t="n">
         <v>0.65</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT211" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         <v>1.24</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU212" t="n">
         <v>1.55</v>
@@ -43733,10 +43733,10 @@
         <v>1.8</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU213" t="n">
         <v>1.47</v>
@@ -43936,7 +43936,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT214" t="n">
         <v>1.18</v>
@@ -44139,10 +44139,10 @@
         <v>0.6</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU215" t="n">
         <v>1.2</v>
@@ -44345,7 +44345,7 @@
         <v>1.53</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU216" t="n">
         <v>1.36</v>
@@ -44548,7 +44548,7 @@
         <v>2.18</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU217" t="n">
         <v>1.52</v>
@@ -44748,7 +44748,7 @@
         <v>1.1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT218" t="n">
         <v>0.82</v>
@@ -45766,7 +45766,7 @@
         <v>1.06</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU223" t="n">
         <v>1.24</v>
@@ -45966,10 +45966,10 @@
         <v>2</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT224" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU224" t="n">
         <v>1.73</v>
@@ -46169,7 +46169,7 @@
         <v>1.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT225" t="n">
         <v>1.29</v>
@@ -46578,7 +46578,7 @@
         <v>1</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU227" t="n">
         <v>1.34</v>
@@ -46781,7 +46781,7 @@
         <v>1.82</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU228" t="n">
         <v>1.3</v>
@@ -46981,7 +46981,7 @@
         <v>1</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT229" t="n">
         <v>0.76</v>
@@ -47184,7 +47184,7 @@
         <v>0.91</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT230" t="n">
         <v>1</v>
@@ -47390,7 +47390,7 @@
         <v>2.18</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU231" t="n">
         <v>1.67</v>
@@ -47793,7 +47793,7 @@
         <v>1.45</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT233" t="n">
         <v>1.24</v>
@@ -47996,10 +47996,10 @@
         <v>1.36</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT234" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU234" t="n">
         <v>1.35</v>
@@ -48199,7 +48199,7 @@
         <v>1.55</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT235" t="n">
         <v>1.82</v>
@@ -48402,7 +48402,7 @@
         <v>1.18</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT236" t="n">
         <v>1.35</v>
@@ -48605,10 +48605,10 @@
         <v>1.64</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU237" t="n">
         <v>1.52</v>
@@ -48808,10 +48808,10 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -49014,7 +49014,7 @@
         <v>2.18</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU239" t="n">
         <v>1.52</v>
@@ -49217,7 +49217,7 @@
         <v>1.53</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU240" t="n">
         <v>1.37</v>
@@ -49420,7 +49420,7 @@
         <v>1.82</v>
       </c>
       <c r="AT241" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU241" t="n">
         <v>1.39</v>
@@ -49826,7 +49826,7 @@
         <v>1.65</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU243" t="n">
         <v>1.65</v>
@@ -50026,10 +50026,10 @@
         <v>0.58</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU244" t="n">
         <v>1.57</v>
@@ -50229,7 +50229,7 @@
         <v>1.25</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT245" t="n">
         <v>1.29</v>
@@ -50432,7 +50432,7 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT246" t="n">
         <v>0.76</v>
@@ -50638,7 +50638,7 @@
         <v>1.24</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU247" t="n">
         <v>1.37</v>
@@ -51041,7 +51041,7 @@
         <v>0.45</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT249" t="n">
         <v>0.65</v>
@@ -51247,7 +51247,7 @@
         <v>1.59</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU250" t="n">
         <v>1.72</v>
@@ -51450,7 +51450,7 @@
         <v>2.18</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU251" t="n">
         <v>1.64</v>
@@ -51650,7 +51650,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT252" t="n">
         <v>0.76</v>
@@ -51853,7 +51853,7 @@
         <v>1.5</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT253" t="n">
         <v>1.82</v>
@@ -52059,7 +52059,7 @@
         <v>1.24</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU254" t="n">
         <v>1.44</v>
@@ -52262,7 +52262,7 @@
         <v>1.59</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU255" t="n">
         <v>1.65</v>
@@ -52665,10 +52665,10 @@
         <v>0.54</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU257" t="n">
         <v>1.56</v>
@@ -52868,10 +52868,10 @@
         <v>1.33</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU258" t="n">
         <v>1.24</v>
@@ -53274,7 +53274,7 @@
         <v>1.42</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT260" t="n">
         <v>1.24</v>
@@ -53477,10 +53477,10 @@
         <v>1.62</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU261" t="n">
         <v>1.74</v>
@@ -53683,7 +53683,7 @@
         <v>1.65</v>
       </c>
       <c r="AT262" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU262" t="n">
         <v>1.7</v>
@@ -53883,10 +53883,10 @@
         <v>1.46</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU263" t="n">
         <v>1.47</v>
@@ -54289,7 +54289,7 @@
         <v>1.25</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT265" t="n">
         <v>1.18</v>
@@ -54698,7 +54698,7 @@
         <v>1.24</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU267" t="n">
         <v>1.53</v>
@@ -55304,10 +55304,10 @@
         <v>1.85</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT270" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU270" t="n">
         <v>1.59</v>
@@ -55510,7 +55510,7 @@
         <v>1.24</v>
       </c>
       <c r="AT271" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU271" t="n">
         <v>1.46</v>
@@ -55713,7 +55713,7 @@
         <v>2.18</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU272" t="n">
         <v>1.52</v>
@@ -56319,7 +56319,7 @@
         <v>1.62</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT275" t="n">
         <v>1.82</v>
@@ -56725,10 +56725,10 @@
         <v>1.69</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU277" t="n">
         <v>1.4</v>
@@ -56928,7 +56928,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT278" t="n">
         <v>0.76</v>
@@ -57131,10 +57131,10 @@
         <v>1.23</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU279" t="n">
         <v>1.7</v>
@@ -57337,7 +57337,7 @@
         <v>2.18</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU280" t="n">
         <v>1.63</v>
@@ -57537,10 +57537,10 @@
         <v>0.93</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU281" t="n">
         <v>1.25</v>
@@ -57743,7 +57743,7 @@
         <v>1.65</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU282" t="n">
         <v>1.71</v>
@@ -58146,7 +58146,7 @@
         <v>1</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT284" t="n">
         <v>0.82</v>
@@ -58552,10 +58552,10 @@
         <v>1.57</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU286" t="n">
         <v>1.32</v>
@@ -58758,7 +58758,7 @@
         <v>1.82</v>
       </c>
       <c r="AT287" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU287" t="n">
         <v>1.33</v>
@@ -58958,7 +58958,7 @@
         <v>1.38</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT288" t="n">
         <v>1.24</v>
@@ -59164,7 +59164,7 @@
         <v>1.24</v>
       </c>
       <c r="AT289" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU289" t="n">
         <v>1.55</v>
@@ -59364,7 +59364,7 @@
         <v>0.46</v>
       </c>
       <c r="AS290" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT290" t="n">
         <v>0.65</v>
@@ -59570,7 +59570,7 @@
         <v>1.24</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU291" t="n">
         <v>1.41</v>
@@ -59976,7 +59976,7 @@
         <v>1.59</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU293" t="n">
         <v>1.63</v>
@@ -60179,7 +60179,7 @@
         <v>2.18</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU294" t="n">
         <v>1.5</v>
@@ -60379,7 +60379,7 @@
         <v>1</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT295" t="n">
         <v>1</v>
@@ -60582,10 +60582,10 @@
         <v>1.14</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU296" t="n">
         <v>1.46</v>
@@ -60788,7 +60788,7 @@
         <v>1.24</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU297" t="n">
         <v>1.44</v>
@@ -61191,7 +61191,7 @@
         <v>1.43</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT299" t="n">
         <v>1.35</v>
@@ -61597,7 +61597,7 @@
         <v>0.64</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT301" t="n">
         <v>0.76</v>
@@ -61800,10 +61800,10 @@
         <v>1.67</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU302" t="n">
         <v>1.57</v>
@@ -62003,10 +62003,10 @@
         <v>0.6</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT303" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU303" t="n">
         <v>1.34</v>
@@ -62206,7 +62206,7 @@
         <v>0.8</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT304" t="n">
         <v>0.76</v>
@@ -62409,10 +62409,10 @@
         <v>1.67</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU305" t="n">
         <v>1.83</v>
@@ -62615,7 +62615,7 @@
         <v>1.24</v>
       </c>
       <c r="AT306" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU306" t="n">
         <v>1.37</v>
@@ -62815,7 +62815,7 @@
         <v>0.43</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT307" t="n">
         <v>0.65</v>
@@ -63224,7 +63224,7 @@
         <v>1.53</v>
       </c>
       <c r="AT309" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU309" t="n">
         <v>1.43</v>
@@ -63424,10 +63424,10 @@
         <v>1.07</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU310" t="n">
         <v>1.72</v>
@@ -63630,7 +63630,7 @@
         <v>1.82</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU311" t="n">
         <v>1.34</v>
@@ -64033,7 +64033,7 @@
         <v>1.33</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT313" t="n">
         <v>1.35</v>
@@ -64236,7 +64236,7 @@
         <v>1.4</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT314" t="n">
         <v>1.24</v>
@@ -64442,7 +64442,7 @@
         <v>1.24</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU315" t="n">
         <v>1.46</v>
@@ -65048,7 +65048,7 @@
         <v>1.27</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT318" t="n">
         <v>1.18</v>
@@ -65254,7 +65254,7 @@
         <v>1.24</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU319" t="n">
         <v>1.49</v>
@@ -65660,7 +65660,7 @@
         <v>2.18</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU321" t="n">
         <v>1.64</v>
@@ -65860,10 +65860,10 @@
         <v>1.94</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT322" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU322" t="n">
         <v>1.79</v>
@@ -66066,7 +66066,7 @@
         <v>1.53</v>
       </c>
       <c r="AT323" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU323" t="n">
         <v>1.42</v>
@@ -66266,10 +66266,10 @@
         <v>1.56</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AU324" t="n">
         <v>1.34</v>
@@ -66469,7 +66469,7 @@
         <v>0.75</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT325" t="n">
         <v>0.76</v>
@@ -66672,10 +66672,10 @@
         <v>1.56</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT326" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU326" t="n">
         <v>1.57</v>
@@ -66878,7 +66878,7 @@
         <v>1.06</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU327" t="n">
         <v>1.24</v>
@@ -67081,7 +67081,7 @@
         <v>1.82</v>
       </c>
       <c r="AT328" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU328" t="n">
         <v>1.33</v>
@@ -67281,10 +67281,10 @@
         <v>1</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT329" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU329" t="n">
         <v>1.63</v>
@@ -67687,7 +67687,7 @@
         <v>0.47</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT331" t="n">
         <v>0.65</v>
@@ -68908,7 +68908,7 @@
         <v>1.24</v>
       </c>
       <c r="AT337" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU337" t="n">
         <v>1.48</v>
@@ -69108,7 +69108,7 @@
         <v>1.25</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT338" t="n">
         <v>1.18</v>
@@ -69311,7 +69311,7 @@
         <v>0.63</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT339" t="n">
         <v>0.65</v>
@@ -69517,7 +69517,7 @@
         <v>1.65</v>
       </c>
       <c r="AT340" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU340" t="n">
         <v>1.79</v>
@@ -69772,6 +69772,2036 @@
       </c>
       <c r="BK341" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3168641</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45059.41666666666</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>6</v>
+      </c>
+      <c r="R342" t="n">
+        <v>5</v>
+      </c>
+      <c r="S342" t="n">
+        <v>11</v>
+      </c>
+      <c r="T342" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V342" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X342" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2468646</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F343" t="n">
+        <v>35</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>4</v>
+      </c>
+      <c r="M343" t="n">
+        <v>2</v>
+      </c>
+      <c r="N343" t="n">
+        <v>6</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['57', '69', '83', '90+3']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['52', '84']</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>3</v>
+      </c>
+      <c r="R343" t="n">
+        <v>4</v>
+      </c>
+      <c r="S343" t="n">
+        <v>7</v>
+      </c>
+      <c r="T343" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V343" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X343" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2468644</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F344" t="n">
+        <v>35</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>2</v>
+      </c>
+      <c r="M344" t="n">
+        <v>1</v>
+      </c>
+      <c r="N344" t="n">
+        <v>3</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>['49', '71']</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q344" t="n">
+        <v>4</v>
+      </c>
+      <c r="R344" t="n">
+        <v>2</v>
+      </c>
+      <c r="S344" t="n">
+        <v>6</v>
+      </c>
+      <c r="T344" t="n">
+        <v>2</v>
+      </c>
+      <c r="U344" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V344" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W344" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X344" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ344" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA344" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB344" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC344" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD344" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE344" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF344" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG344" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH344" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ344" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK344" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2468645</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F345" t="n">
+        <v>35</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>2</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>2</v>
+      </c>
+      <c r="L345" t="n">
+        <v>3</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>3</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>['7', '45', '74']</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q345" t="n">
+        <v>3</v>
+      </c>
+      <c r="R345" t="n">
+        <v>3</v>
+      </c>
+      <c r="S345" t="n">
+        <v>6</v>
+      </c>
+      <c r="T345" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U345" t="n">
+        <v>2</v>
+      </c>
+      <c r="V345" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W345" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X345" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL345" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM345" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP345" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ345" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR345" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS345" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT345" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU345" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW345" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX345" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY345" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ345" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB345" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC345" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD345" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE345" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF345" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG345" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH345" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI345" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ345" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK345" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2468640</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F346" t="n">
+        <v>35</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>1</v>
+      </c>
+      <c r="J346" t="n">
+        <v>1</v>
+      </c>
+      <c r="K346" t="n">
+        <v>2</v>
+      </c>
+      <c r="L346" t="n">
+        <v>2</v>
+      </c>
+      <c r="M346" t="n">
+        <v>1</v>
+      </c>
+      <c r="N346" t="n">
+        <v>3</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>['31', '50']</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q346" t="n">
+        <v>4</v>
+      </c>
+      <c r="R346" t="n">
+        <v>9</v>
+      </c>
+      <c r="S346" t="n">
+        <v>13</v>
+      </c>
+      <c r="T346" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U346" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V346" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X346" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD346" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE346" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL346" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM346" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP346" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR346" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS346" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT346" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU346" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW346" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX346" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY346" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ346" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA346" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB346" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC346" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD346" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE346" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF346" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG346" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH346" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI346" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ346" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK346" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2468643</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F347" t="n">
+        <v>35</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="n">
+        <v>1</v>
+      </c>
+      <c r="N347" t="n">
+        <v>2</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q347" t="n">
+        <v>6</v>
+      </c>
+      <c r="R347" t="n">
+        <v>2</v>
+      </c>
+      <c r="S347" t="n">
+        <v>8</v>
+      </c>
+      <c r="T347" t="n">
+        <v>3</v>
+      </c>
+      <c r="U347" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V347" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W347" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X347" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ347" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA347" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB347" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC347" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD347" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE347" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF347" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG347" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH347" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ347" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK347" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2468638</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>1</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q348" t="n">
+        <v>3</v>
+      </c>
+      <c r="R348" t="n">
+        <v>2</v>
+      </c>
+      <c r="S348" t="n">
+        <v>5</v>
+      </c>
+      <c r="T348" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V348" t="n">
+        <v>7</v>
+      </c>
+      <c r="W348" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X348" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ348" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA348" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB348" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC348" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD348" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE348" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF348" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG348" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH348" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ348" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK348" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2468641</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F349" t="n">
+        <v>35</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>1</v>
+      </c>
+      <c r="N349" t="n">
+        <v>1</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q349" t="n">
+        <v>5</v>
+      </c>
+      <c r="R349" t="n">
+        <v>5</v>
+      </c>
+      <c r="S349" t="n">
+        <v>10</v>
+      </c>
+      <c r="T349" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U349" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V349" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W349" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X349" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ349" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA349" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB349" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC349" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD349" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE349" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF349" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG349" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH349" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ349" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK349" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2468642</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F350" t="n">
+        <v>35</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>6</v>
+      </c>
+      <c r="R350" t="n">
+        <v>5</v>
+      </c>
+      <c r="S350" t="n">
+        <v>11</v>
+      </c>
+      <c r="T350" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2</v>
+      </c>
+      <c r="V350" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X350" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2468639</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45061.65625</v>
+      </c>
+      <c r="F351" t="n">
+        <v>35</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>1</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>3</v>
+      </c>
+      <c r="R351" t="n">
+        <v>4</v>
+      </c>
+      <c r="S351" t="n">
+        <v>7</v>
+      </c>
+      <c r="T351" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U351" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V351" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X351" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK351"/>
+  <dimension ref="A1:BK360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT4" t="n">
         <v>1.11</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT7" t="n">
         <v>0.76</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT12" t="n">
         <v>0.39</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.11</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -6181,7 +6181,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU28" t="n">
         <v>1.4</v>
@@ -6384,7 +6384,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU29" t="n">
         <v>1.27</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5600000000000001</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT32" t="n">
         <v>1.89</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU33" t="n">
         <v>1.02</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU36" t="n">
         <v>0.9</v>
@@ -8008,7 +8008,7 @@
         <v>1.44</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU37" t="n">
         <v>1.06</v>
@@ -8211,7 +8211,7 @@
         <v>1.44</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -8617,7 +8617,7 @@
         <v>1.06</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU40" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT41" t="n">
         <v>1.61</v>
@@ -9023,7 +9023,7 @@
         <v>1.89</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU42" t="n">
         <v>1.46</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>1.6</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU47" t="n">
         <v>1.21</v>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU53" t="n">
         <v>1.29</v>
@@ -11459,7 +11459,7 @@
         <v>1.06</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU55" t="n">
         <v>1.65</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.5</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT58" t="n">
         <v>0.39</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU60" t="n">
         <v>1.45</v>
@@ -13083,7 +13083,7 @@
         <v>2.18</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU62" t="n">
         <v>1.62</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
         <v>1.06</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13692,7 +13692,7 @@
         <v>1.89</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU65" t="n">
         <v>1.66</v>
@@ -13895,7 +13895,7 @@
         <v>1.72</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU66" t="n">
         <v>1.68</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT69" t="n">
         <v>1.61</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT70" t="n">
         <v>1.17</v>
@@ -14907,7 +14907,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT71" t="n">
         <v>1.61</v>
@@ -15113,7 +15113,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15313,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT73" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>1.56</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU77" t="n">
         <v>1.35</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU79" t="n">
         <v>1.51</v>
@@ -16937,10 +16937,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU81" t="n">
         <v>1.45</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT82" t="n">
         <v>1.17</v>
@@ -17346,7 +17346,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU83" t="n">
         <v>1.43</v>
@@ -17749,10 +17749,10 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17952,10 +17952,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18158,7 +18158,7 @@
         <v>2.18</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU87" t="n">
         <v>1.52</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.5600000000000001</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT90" t="n">
         <v>0.76</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT91" t="n">
         <v>1.06</v>
@@ -19173,7 +19173,7 @@
         <v>2.11</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU92" t="n">
         <v>1.88</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT93" t="n">
         <v>1.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.44</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU95" t="n">
         <v>1.15</v>
@@ -20188,7 +20188,7 @@
         <v>1.56</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -20997,10 +20997,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.46</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU103" t="n">
         <v>1.5</v>
@@ -21812,7 +21812,7 @@
         <v>2.18</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU105" t="n">
         <v>1.54</v>
@@ -22012,10 +22012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -22418,10 +22418,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT109" t="n">
         <v>0.76</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -23639,7 +23639,7 @@
         <v>1.89</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24045,7 +24045,7 @@
         <v>1.44</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU119" t="n">
         <v>1.26</v>
@@ -24854,7 +24854,7 @@
         <v>1.4</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT120" t="n">
         <v>0.9399999999999999</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.17</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -25666,10 +25666,10 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT125" t="n">
         <v>0.76</v>
@@ -26072,10 +26072,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU126" t="n">
         <v>1.53</v>
@@ -26278,7 +26278,7 @@
         <v>1.72</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26478,10 +26478,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU128" t="n">
         <v>1.53</v>
@@ -26684,7 +26684,7 @@
         <v>2.11</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.77</v>
@@ -26884,7 +26884,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT130" t="n">
         <v>0.39</v>
@@ -27090,7 +27090,7 @@
         <v>2.18</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27290,7 +27290,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT132" t="n">
         <v>1.61</v>
@@ -27699,7 +27699,7 @@
         <v>1.56</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28308,7 +28308,7 @@
         <v>1.44</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU137" t="n">
         <v>1.26</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT139" t="n">
         <v>0.9399999999999999</v>
@@ -29320,10 +29320,10 @@
         <v>1.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -29729,7 +29729,7 @@
         <v>1.72</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29929,10 +29929,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30132,10 +30132,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU146" t="n">
         <v>1.3</v>
@@ -30335,7 +30335,7 @@
         <v>1.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT147" t="n">
         <v>1.11</v>
@@ -30538,10 +30538,10 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU148" t="n">
         <v>1.62</v>
@@ -30947,7 +30947,7 @@
         <v>2.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU150" t="n">
         <v>1.76</v>
@@ -31147,7 +31147,7 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT151" t="n">
         <v>1.89</v>
@@ -31759,7 +31759,7 @@
         <v>1.5</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -32368,7 +32368,7 @@
         <v>1.72</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32771,7 +32771,7 @@
         <v>1.88</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT159" t="n">
         <v>1.5</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU160" t="n">
         <v>1.47</v>
@@ -33177,7 +33177,7 @@
         <v>1.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT161" t="n">
         <v>1.5</v>
@@ -33380,10 +33380,10 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU162" t="n">
         <v>1.76</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33789,7 +33789,7 @@
         <v>1.06</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU164" t="n">
         <v>1.32</v>
@@ -34395,10 +34395,10 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34598,7 +34598,7 @@
         <v>2.13</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT168" t="n">
         <v>1.89</v>
@@ -35207,10 +35207,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU171" t="n">
         <v>1.47</v>
@@ -35616,7 +35616,7 @@
         <v>2.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35816,10 +35816,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU174" t="n">
         <v>1.34</v>
@@ -36022,7 +36022,7 @@
         <v>1.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU175" t="n">
         <v>1.5</v>
@@ -36222,10 +36222,10 @@
         <v>1.25</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU176" t="n">
         <v>1.65</v>
@@ -36425,10 +36425,10 @@
         <v>0.63</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU177" t="n">
         <v>1.23</v>
@@ -36834,7 +36834,7 @@
         <v>1.44</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU179" t="n">
         <v>1.3</v>
@@ -37034,7 +37034,7 @@
         <v>1.75</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
         <v>1.5</v>
@@ -37237,7 +37237,7 @@
         <v>1.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT181" t="n">
         <v>1.06</v>
@@ -37849,7 +37849,7 @@
         <v>1.44</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU184" t="n">
         <v>1.58</v>
@@ -38255,7 +38255,7 @@
         <v>1.89</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU186" t="n">
         <v>1.52</v>
@@ -38455,7 +38455,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT187" t="n">
         <v>1.06</v>
@@ -38861,7 +38861,7 @@
         <v>1.22</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT189" t="n">
         <v>0.9399999999999999</v>
@@ -39270,7 +39270,7 @@
         <v>1.72</v>
       </c>
       <c r="AT191" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU191" t="n">
         <v>1.77</v>
@@ -39470,10 +39470,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU192" t="n">
         <v>1.68</v>
@@ -40082,7 +40082,7 @@
         <v>1.44</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU195" t="n">
         <v>1.33</v>
@@ -40282,10 +40282,10 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU196" t="n">
         <v>1.3</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT197" t="n">
         <v>1.89</v>
@@ -40688,10 +40688,10 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU198" t="n">
         <v>1.5</v>
@@ -40891,7 +40891,7 @@
         <v>0.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT199" t="n">
         <v>0.5600000000000001</v>
@@ -41097,7 +41097,7 @@
         <v>2.11</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41500,7 +41500,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT202" t="n">
         <v>1.89</v>
@@ -41706,7 +41706,7 @@
         <v>1.89</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU203" t="n">
         <v>1.55</v>
@@ -42109,7 +42109,7 @@
         <v>0.9</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT205" t="n">
         <v>1.11</v>
@@ -42312,10 +42312,10 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU206" t="n">
         <v>1.29</v>
@@ -42921,7 +42921,7 @@
         <v>0.3</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT209" t="n">
         <v>0.39</v>
@@ -43127,7 +43127,7 @@
         <v>1.44</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU210" t="n">
         <v>1.51</v>
@@ -43330,7 +43330,7 @@
         <v>1.56</v>
       </c>
       <c r="AT211" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU211" t="n">
         <v>1.36</v>
@@ -43530,7 +43530,7 @@
         <v>1.5</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT212" t="n">
         <v>1.61</v>
@@ -43939,7 +43939,7 @@
         <v>2.11</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU214" t="n">
         <v>1.78</v>
@@ -44342,7 +44342,7 @@
         <v>1.3</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT216" t="n">
         <v>1.06</v>
@@ -44751,7 +44751,7 @@
         <v>1.44</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU218" t="n">
         <v>1.28</v>
@@ -44954,7 +44954,7 @@
         <v>1.06</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU219" t="n">
         <v>1.27</v>
@@ -45154,10 +45154,10 @@
         <v>1.1</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU220" t="n">
         <v>1.68</v>
@@ -45357,10 +45357,10 @@
         <v>1.4</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU221" t="n">
         <v>1.77</v>
@@ -45560,10 +45560,10 @@
         <v>0.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU222" t="n">
         <v>1.7</v>
@@ -46172,7 +46172,7 @@
         <v>2</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -46372,7 +46372,7 @@
         <v>0.73</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT226" t="n">
         <v>0.76</v>
@@ -46778,7 +46778,7 @@
         <v>1.09</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT228" t="n">
         <v>1.11</v>
@@ -46984,7 +46984,7 @@
         <v>1.44</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU229" t="n">
         <v>1.52</v>
@@ -47187,7 +47187,7 @@
         <v>1.89</v>
       </c>
       <c r="AT230" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU230" t="n">
         <v>1.56</v>
@@ -47387,7 +47387,7 @@
         <v>1.58</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT231" t="n">
         <v>1.5</v>
@@ -47590,10 +47590,10 @@
         <v>1</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU232" t="n">
         <v>1.53</v>
@@ -47796,7 +47796,7 @@
         <v>1.5</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU233" t="n">
         <v>1.47</v>
@@ -48202,7 +48202,7 @@
         <v>1.5</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU235" t="n">
         <v>1.25</v>
@@ -48405,7 +48405,7 @@
         <v>1.44</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU236" t="n">
         <v>1.31</v>
@@ -49214,7 +49214,7 @@
         <v>0.82</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT240" t="n">
         <v>1.17</v>
@@ -49417,7 +49417,7 @@
         <v>1.92</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT241" t="n">
         <v>1.89</v>
@@ -49620,10 +49620,10 @@
         <v>0.92</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT242" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU242" t="n">
         <v>1.44</v>
@@ -49823,7 +49823,7 @@
         <v>1.08</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT243" t="n">
         <v>1.11</v>
@@ -50232,7 +50232,7 @@
         <v>1.44</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU245" t="n">
         <v>1.5</v>
@@ -50435,7 +50435,7 @@
         <v>1.72</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU246" t="n">
         <v>1.75</v>
@@ -50635,7 +50635,7 @@
         <v>0.75</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT247" t="n">
         <v>0.5600000000000001</v>
@@ -50841,7 +50841,7 @@
         <v>1.06</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU248" t="n">
         <v>1.22</v>
@@ -51044,7 +51044,7 @@
         <v>1.44</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU249" t="n">
         <v>1.3</v>
@@ -51244,7 +51244,7 @@
         <v>1.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
         <v>1.61</v>
@@ -51447,7 +51447,7 @@
         <v>1</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT251" t="n">
         <v>1.17</v>
@@ -51856,7 +51856,7 @@
         <v>1.56</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -52056,7 +52056,7 @@
         <v>1.58</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT254" t="n">
         <v>1.5</v>
@@ -52259,7 +52259,7 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT255" t="n">
         <v>1.11</v>
@@ -52465,7 +52465,7 @@
         <v>1</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU256" t="n">
         <v>1.31</v>
@@ -53074,7 +53074,7 @@
         <v>2.18</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU259" t="n">
         <v>1.54</v>
@@ -53277,7 +53277,7 @@
         <v>2.11</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU260" t="n">
         <v>1.83</v>
@@ -53680,7 +53680,7 @@
         <v>1.25</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT262" t="n">
         <v>0.9399999999999999</v>
@@ -54089,7 +54089,7 @@
         <v>1.06</v>
       </c>
       <c r="AT264" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU264" t="n">
         <v>1.24</v>
@@ -54292,7 +54292,7 @@
         <v>1.44</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -54492,10 +54492,10 @@
         <v>0.92</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU266" t="n">
         <v>1.32</v>
@@ -54695,7 +54695,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT267" t="n">
         <v>0.5600000000000001</v>
@@ -54898,10 +54898,10 @@
         <v>1.38</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU268" t="n">
         <v>1.37</v>
@@ -55101,10 +55101,10 @@
         <v>0.5</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU269" t="n">
         <v>1.42</v>
@@ -55507,7 +55507,7 @@
         <v>1.23</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT271" t="n">
         <v>0.9399999999999999</v>
@@ -55913,10 +55913,10 @@
         <v>1.31</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -56116,10 +56116,10 @@
         <v>1.23</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU274" t="n">
         <v>1.46</v>
@@ -56322,7 +56322,7 @@
         <v>1.5</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU275" t="n">
         <v>1.51</v>
@@ -56525,7 +56525,7 @@
         <v>1</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU276" t="n">
         <v>1.28</v>
@@ -57334,7 +57334,7 @@
         <v>0.5</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT280" t="n">
         <v>0.39</v>
@@ -57740,7 +57740,7 @@
         <v>0.64</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT282" t="n">
         <v>0.5600000000000001</v>
@@ -57943,10 +57943,10 @@
         <v>0.86</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU283" t="n">
         <v>1.4</v>
@@ -58149,7 +58149,7 @@
         <v>1.89</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU284" t="n">
         <v>1.59</v>
@@ -58352,7 +58352,7 @@
         <v>1.06</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU285" t="n">
         <v>1.24</v>
@@ -58755,7 +58755,7 @@
         <v>1.14</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT287" t="n">
         <v>0.9399999999999999</v>
@@ -58961,7 +58961,7 @@
         <v>2</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU288" t="n">
         <v>1.62</v>
@@ -59161,7 +59161,7 @@
         <v>1.79</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT289" t="n">
         <v>1.89</v>
@@ -59367,7 +59367,7 @@
         <v>2.11</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU290" t="n">
         <v>1.83</v>
@@ -59567,7 +59567,7 @@
         <v>1.57</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT291" t="n">
         <v>1.61</v>
@@ -59770,10 +59770,10 @@
         <v>1.36</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU292" t="n">
         <v>1.66</v>
@@ -59973,7 +59973,7 @@
         <v>0.47</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT293" t="n">
         <v>0.39</v>
@@ -60382,7 +60382,7 @@
         <v>1.5</v>
       </c>
       <c r="AT295" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU295" t="n">
         <v>1.53</v>
@@ -60785,7 +60785,7 @@
         <v>1</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT297" t="n">
         <v>1.17</v>
@@ -60991,7 +60991,7 @@
         <v>1</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU298" t="n">
         <v>1.29</v>
@@ -61194,7 +61194,7 @@
         <v>1.5</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU299" t="n">
         <v>1.28</v>
@@ -61394,10 +61394,10 @@
         <v>1.71</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU300" t="n">
         <v>1.53</v>
@@ -62209,7 +62209,7 @@
         <v>2</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU304" t="n">
         <v>1.63</v>
@@ -62612,7 +62612,7 @@
         <v>1.07</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT306" t="n">
         <v>0.9399999999999999</v>
@@ -62818,7 +62818,7 @@
         <v>1.5</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU307" t="n">
         <v>1.53</v>
@@ -63021,7 +63021,7 @@
         <v>1.06</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU308" t="n">
         <v>1.25</v>
@@ -63221,7 +63221,7 @@
         <v>1.87</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT309" t="n">
         <v>1.89</v>
@@ -63627,7 +63627,7 @@
         <v>1.13</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT311" t="n">
         <v>1.17</v>
@@ -63830,10 +63830,10 @@
         <v>1.67</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU312" t="n">
         <v>1.77</v>
@@ -64036,7 +64036,7 @@
         <v>1.56</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU313" t="n">
         <v>1.37</v>
@@ -64239,7 +64239,7 @@
         <v>1.44</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU314" t="n">
         <v>1.49</v>
@@ -64439,7 +64439,7 @@
         <v>0.44</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT315" t="n">
         <v>0.39</v>
@@ -64642,7 +64642,7 @@
         <v>0.6</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT316" t="n">
         <v>0.76</v>
@@ -64848,7 +64848,7 @@
         <v>1</v>
       </c>
       <c r="AT317" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU317" t="n">
         <v>1.29</v>
@@ -65051,7 +65051,7 @@
         <v>1.5</v>
       </c>
       <c r="AT318" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU318" t="n">
         <v>1.28</v>
@@ -65251,7 +65251,7 @@
         <v>1.6</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT319" t="n">
         <v>1.5</v>
@@ -65457,7 +65457,7 @@
         <v>2.18</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU320" t="n">
         <v>1.47</v>
@@ -65657,7 +65657,7 @@
         <v>1.27</v>
       </c>
       <c r="AS321" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT321" t="n">
         <v>1.06</v>
@@ -66063,7 +66063,7 @@
         <v>1.19</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT323" t="n">
         <v>1.11</v>
@@ -66472,7 +66472,7 @@
         <v>1.5</v>
       </c>
       <c r="AT325" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU325" t="n">
         <v>1.53</v>
@@ -67078,7 +67078,7 @@
         <v>0.63</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT328" t="n">
         <v>0.5600000000000001</v>
@@ -67484,10 +67484,10 @@
         <v>0.88</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT330" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU330" t="n">
         <v>1.36</v>
@@ -67690,7 +67690,7 @@
         <v>1.72</v>
       </c>
       <c r="AT331" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU331" t="n">
         <v>1.74</v>
@@ -67890,10 +67890,10 @@
         <v>1.06</v>
       </c>
       <c r="AS332" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT332" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU332" t="n">
         <v>1.69</v>
@@ -68093,7 +68093,7 @@
         <v>0.75</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT333" t="n">
         <v>0.76</v>
@@ -68296,10 +68296,10 @@
         <v>1.19</v>
       </c>
       <c r="AS334" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT334" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU334" t="n">
         <v>1.49</v>
@@ -68502,7 +68502,7 @@
         <v>1</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU335" t="n">
         <v>1.29</v>
@@ -68702,10 +68702,10 @@
         <v>1.31</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT336" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU336" t="n">
         <v>1.62</v>
@@ -68905,7 +68905,7 @@
         <v>1.19</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT337" t="n">
         <v>1.06</v>
@@ -69111,7 +69111,7 @@
         <v>1.44</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU338" t="n">
         <v>1.49</v>
@@ -69314,7 +69314,7 @@
         <v>1.56</v>
       </c>
       <c r="AT339" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU339" t="n">
         <v>1.32</v>
@@ -69514,7 +69514,7 @@
         <v>1.5</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT340" t="n">
         <v>1.5</v>
@@ -69720,7 +69720,7 @@
         <v>2.18</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU341" t="n">
         <v>1.46</v>
@@ -71802,6 +71802,1833 @@
       </c>
       <c r="BK351" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2468649</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45065.58333333334</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>1</v>
+      </c>
+      <c r="K352" t="n">
+        <v>2</v>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="n">
+        <v>1</v>
+      </c>
+      <c r="N352" t="n">
+        <v>2</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>4</v>
+      </c>
+      <c r="R352" t="n">
+        <v>6</v>
+      </c>
+      <c r="S352" t="n">
+        <v>10</v>
+      </c>
+      <c r="T352" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2</v>
+      </c>
+      <c r="V352" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X352" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3168642</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45066.40625</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>2</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="n">
+        <v>2</v>
+      </c>
+      <c r="L353" t="n">
+        <v>3</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>3</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>['3', '32', '49']</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>1</v>
+      </c>
+      <c r="R353" t="n">
+        <v>8</v>
+      </c>
+      <c r="S353" t="n">
+        <v>9</v>
+      </c>
+      <c r="T353" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V353" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X353" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2468653</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>1</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="n">
+        <v>2</v>
+      </c>
+      <c r="N354" t="n">
+        <v>3</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['55', '77']</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>4</v>
+      </c>
+      <c r="R354" t="n">
+        <v>5</v>
+      </c>
+      <c r="S354" t="n">
+        <v>9</v>
+      </c>
+      <c r="T354" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V354" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X354" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2468647</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1</v>
+      </c>
+      <c r="K355" t="n">
+        <v>2</v>
+      </c>
+      <c r="L355" t="n">
+        <v>4</v>
+      </c>
+      <c r="M355" t="n">
+        <v>2</v>
+      </c>
+      <c r="N355" t="n">
+        <v>6</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>['21', '66', '73', '89']</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['41', '77']</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>8</v>
+      </c>
+      <c r="R355" t="n">
+        <v>5</v>
+      </c>
+      <c r="S355" t="n">
+        <v>13</v>
+      </c>
+      <c r="T355" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V355" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X355" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2468648</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>1</v>
+      </c>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
+      <c r="L356" t="n">
+        <v>2</v>
+      </c>
+      <c r="M356" t="n">
+        <v>1</v>
+      </c>
+      <c r="N356" t="n">
+        <v>3</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>['81', '90']</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>5</v>
+      </c>
+      <c r="R356" t="n">
+        <v>3</v>
+      </c>
+      <c r="S356" t="n">
+        <v>8</v>
+      </c>
+      <c r="T356" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V356" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X356" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2468650</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>1</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2</v>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="n">
+        <v>3</v>
+      </c>
+      <c r="N357" t="n">
+        <v>4</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['40', '60', '70']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>2</v>
+      </c>
+      <c r="R357" t="n">
+        <v>6</v>
+      </c>
+      <c r="S357" t="n">
+        <v>8</v>
+      </c>
+      <c r="T357" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V357" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X357" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2468651</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>1</v>
+      </c>
+      <c r="K358" t="n">
+        <v>1</v>
+      </c>
+      <c r="L358" t="n">
+        <v>2</v>
+      </c>
+      <c r="M358" t="n">
+        <v>2</v>
+      </c>
+      <c r="N358" t="n">
+        <v>4</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>['49', '58']</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['16', '64']</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>6</v>
+      </c>
+      <c r="R358" t="n">
+        <v>8</v>
+      </c>
+      <c r="S358" t="n">
+        <v>14</v>
+      </c>
+      <c r="T358" t="n">
+        <v>4</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V358" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X358" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2468655</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1</v>
+      </c>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" t="n">
+        <v>2</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>5</v>
+      </c>
+      <c r="R359" t="n">
+        <v>3</v>
+      </c>
+      <c r="S359" t="n">
+        <v>8</v>
+      </c>
+      <c r="T359" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V359" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X359" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2468652</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F360" t="n">
+        <v>36</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>2</v>
+      </c>
+      <c r="K360" t="n">
+        <v>3</v>
+      </c>
+      <c r="L360" t="n">
+        <v>2</v>
+      </c>
+      <c r="M360" t="n">
+        <v>6</v>
+      </c>
+      <c r="N360" t="n">
+        <v>8</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>['17', '78']</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['20', '23', '56', '68', '75', '85']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>4</v>
+      </c>
+      <c r="R360" t="n">
+        <v>5</v>
+      </c>
+      <c r="S360" t="n">
+        <v>9</v>
+      </c>
+      <c r="T360" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V360" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X360" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK360"/>
+  <dimension ref="A1:BK361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT5" t="n">
         <v>1.06</v>
@@ -1918,7 +1918,7 @@
         <v>2.22</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT23" t="n">
         <v>1.11</v>
@@ -5572,7 +5572,7 @@
         <v>1.89</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT44" t="n">
         <v>0.9399999999999999</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>1.76</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT62" t="n">
         <v>1.11</v>
@@ -15722,7 +15722,7 @@
         <v>1.06</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT87" t="n">
         <v>0.78</v>
@@ -18767,7 +18767,7 @@
         <v>1.17</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT105" t="n">
         <v>1.28</v>
@@ -22624,7 +22624,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -25872,7 +25872,7 @@
         <v>1.78</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -27087,7 +27087,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT131" t="n">
         <v>1.78</v>
@@ -29526,7 +29526,7 @@
         <v>1.44</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -31553,7 +31553,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT153" t="n">
         <v>1.61</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -35613,7 +35613,7 @@
         <v>1.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT173" t="n">
         <v>1.17</v>
@@ -37440,7 +37440,7 @@
         <v>0.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT182" t="n">
         <v>0.39</v>
@@ -38052,7 +38052,7 @@
         <v>1.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU185" t="n">
         <v>1.19</v>
@@ -41909,7 +41909,7 @@
         <v>1.72</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU204" t="n">
         <v>1.73</v>
@@ -44545,7 +44545,7 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT217" t="n">
         <v>1.5</v>
@@ -46375,7 +46375,7 @@
         <v>1.22</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU226" t="n">
         <v>1.4</v>
@@ -49011,7 +49011,7 @@
         <v>0.82</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT239" t="n">
         <v>0.5600000000000001</v>
@@ -51653,7 +51653,7 @@
         <v>1.5</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU252" t="n">
         <v>1.48</v>
@@ -53071,7 +53071,7 @@
         <v>1.17</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT259" t="n">
         <v>0.78</v>
@@ -55710,7 +55710,7 @@
         <v>1</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT272" t="n">
         <v>1.17</v>
@@ -56931,7 +56931,7 @@
         <v>2.11</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU278" t="n">
         <v>1.84</v>
@@ -60176,7 +60176,7 @@
         <v>1.64</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT294" t="n">
         <v>1.5</v>
@@ -61600,7 +61600,7 @@
         <v>1.56</v>
       </c>
       <c r="AT301" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU301" t="n">
         <v>1.38</v>
@@ -64645,7 +64645,7 @@
         <v>1.5</v>
       </c>
       <c r="AT316" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU316" t="n">
         <v>1.62</v>
@@ -65454,7 +65454,7 @@
         <v>1.2</v>
       </c>
       <c r="AS320" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT320" t="n">
         <v>1.22</v>
@@ -68096,7 +68096,7 @@
         <v>1.44</v>
       </c>
       <c r="AT333" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU333" t="n">
         <v>1.48</v>
@@ -69717,7 +69717,7 @@
         <v>1.44</v>
       </c>
       <c r="AS341" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="AT341" t="n">
         <v>1.33</v>
@@ -73629,6 +73629,209 @@
       </c>
       <c r="BK360" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2468654</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45068.65625</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>2</v>
+      </c>
+      <c r="K361" t="n">
+        <v>2</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>2</v>
+      </c>
+      <c r="N361" t="n">
+        <v>2</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>['7', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>8</v>
+      </c>
+      <c r="R361" t="n">
+        <v>1</v>
+      </c>
+      <c r="S361" t="n">
+        <v>9</v>
+      </c>
+      <c r="T361" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V361" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X361" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK361"/>
+  <dimension ref="A1:BK371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.06</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT10" t="n">
         <v>0.78</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.72</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5166,7 +5166,7 @@
         <v>2.06</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU23" t="n">
         <v>1.12</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU27" t="n">
         <v>1.59</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT28" t="n">
         <v>0.78</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT29" t="n">
         <v>1.11</v>
@@ -6587,7 +6587,7 @@
         <v>2.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -6993,7 +6993,7 @@
         <v>1.72</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU32" t="n">
         <v>2.15</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT37" t="n">
         <v>1.22</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU39" t="n">
         <v>2.51</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>0.78</v>
@@ -8820,7 +8820,7 @@
         <v>1.78</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU41" t="n">
         <v>1.49</v>
@@ -9429,7 +9429,7 @@
         <v>2.06</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU44" t="n">
         <v>1.31</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -9832,10 +9832,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU46" t="n">
         <v>0.79</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU48" t="n">
         <v>1.67</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT53" t="n">
         <v>1.17</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT55" t="n">
         <v>0.78</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU57" t="n">
         <v>1.27</v>
@@ -12271,7 +12271,7 @@
         <v>1.78</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU58" t="n">
         <v>1.35</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU59" t="n">
         <v>1.87</v>
@@ -12877,10 +12877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13286,7 +13286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT64" t="n">
         <v>0.78</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>0.78</v>
@@ -14095,10 +14095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU67" t="n">
         <v>1.04</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU68" t="n">
         <v>1.56</v>
@@ -14504,7 +14504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14707,7 +14707,7 @@
         <v>1.17</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -14910,7 +14910,7 @@
         <v>1.72</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT72" t="n">
         <v>1.17</v>
@@ -15316,7 +15316,7 @@
         <v>1.78</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU73" t="n">
         <v>1.4</v>
@@ -15516,10 +15516,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU74" t="n">
         <v>1.97</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>0.89</v>
@@ -15922,10 +15922,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU76" t="n">
         <v>1.54</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT77" t="n">
         <v>1.22</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU78" t="n">
         <v>1.64</v>
@@ -17140,10 +17140,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU82" t="n">
         <v>1.45</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT83" t="n">
         <v>0.78</v>
@@ -17546,10 +17546,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU84" t="n">
         <v>1.87</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18561,10 +18561,10 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18970,7 +18970,7 @@
         <v>1.72</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT92" t="n">
         <v>1.22</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU93" t="n">
         <v>1.39</v>
@@ -19576,10 +19576,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU94" t="n">
         <v>1.47</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT95" t="n">
         <v>1.17</v>
@@ -19982,10 +19982,10 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT97" t="n">
         <v>1.28</v>
@@ -20391,7 +20391,7 @@
         <v>1.89</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20794,10 +20794,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT101" t="n">
         <v>1.33</v>
@@ -21203,7 +21203,7 @@
         <v>2.22</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT103" t="n">
         <v>0.78</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU104" t="n">
         <v>1.86</v>
@@ -22824,10 +22824,10 @@
         <v>0.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU110" t="n">
         <v>1.45</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU111" t="n">
         <v>1.95</v>
@@ -23233,7 +23233,7 @@
         <v>1.72</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23839,10 +23839,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24042,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT116" t="n">
         <v>1.11</v>
@@ -24245,10 +24245,10 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU117" t="n">
         <v>1.58</v>
@@ -24448,7 +24448,7 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT118" t="n">
         <v>1.5</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT119" t="n">
         <v>1.22</v>
@@ -24857,7 +24857,7 @@
         <v>1.44</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,10 +25057,10 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU121" t="n">
         <v>1.57</v>
@@ -25263,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU122" t="n">
         <v>1.68</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT127" t="n">
         <v>1.22</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT128" t="n">
         <v>1.28</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -26887,7 +26887,7 @@
         <v>1.17</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU130" t="n">
         <v>1.5</v>
@@ -27090,7 +27090,7 @@
         <v>2.06</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27293,7 +27293,7 @@
         <v>1.44</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU132" t="n">
         <v>1.4</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT133" t="n">
         <v>1.5</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT134" t="n">
         <v>1.17</v>
@@ -27899,10 +27899,10 @@
         <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -28305,7 +28305,7 @@
         <v>0.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT137" t="n">
         <v>1.11</v>
@@ -28508,10 +28508,10 @@
         <v>1.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28714,7 +28714,7 @@
         <v>1.17</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU139" t="n">
         <v>1.54</v>
@@ -28914,10 +28914,10 @@
         <v>0.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU140" t="n">
         <v>1.59</v>
@@ -29120,7 +29120,7 @@
         <v>1.89</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT143" t="n">
         <v>0.89</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT144" t="n">
         <v>1.28</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30338,7 +30338,7 @@
         <v>2.22</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU147" t="n">
         <v>1.56</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU149" t="n">
         <v>1.29</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT150" t="n">
         <v>0.78</v>
@@ -31147,10 +31147,10 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -31350,10 +31350,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -31556,7 +31556,7 @@
         <v>2.06</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU153" t="n">
         <v>1.57</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT154" t="n">
         <v>0.78</v>
@@ -31959,10 +31959,10 @@
         <v>1.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32165,7 +32165,7 @@
         <v>1.89</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32365,7 +32365,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT157" t="n">
         <v>1.33</v>
@@ -32568,10 +32568,10 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU158" t="n">
         <v>1.21</v>
@@ -32774,7 +32774,7 @@
         <v>1.17</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU159" t="n">
         <v>1.47</v>
@@ -32974,7 +32974,7 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT160" t="n">
         <v>1.11</v>
@@ -33786,7 +33786,7 @@
         <v>0.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
         <v>0.78</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT165" t="n">
         <v>0.89</v>
@@ -34195,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -34398,7 +34398,7 @@
         <v>1.78</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34601,7 +34601,7 @@
         <v>1.33</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35207,7 +35207,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT171" t="n">
         <v>1.22</v>
@@ -35410,10 +35410,10 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -35819,7 +35819,7 @@
         <v>1.44</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU174" t="n">
         <v>1.34</v>
@@ -36019,7 +36019,7 @@
         <v>1</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT175" t="n">
         <v>1.28</v>
@@ -36628,10 +36628,10 @@
         <v>0.63</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU178" t="n">
         <v>1.28</v>
@@ -36831,7 +36831,7 @@
         <v>1.13</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT179" t="n">
         <v>0.78</v>
@@ -37240,7 +37240,7 @@
         <v>1.17</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.51</v>
@@ -37443,7 +37443,7 @@
         <v>2.06</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU182" t="n">
         <v>1.53</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU183" t="n">
         <v>1.49</v>
@@ -37846,7 +37846,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT184" t="n">
         <v>1.33</v>
@@ -38049,7 +38049,7 @@
         <v>0.89</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT185" t="n">
         <v>0.89</v>
@@ -38455,10 +38455,10 @@
         <v>1.11</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU187" t="n">
         <v>1.42</v>
@@ -38658,10 +38658,10 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU188" t="n">
         <v>1.37</v>
@@ -38864,7 +38864,7 @@
         <v>2.22</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39067,7 +39067,7 @@
         <v>1</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU190" t="n">
         <v>1.37</v>
@@ -39267,7 +39267,7 @@
         <v>0.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT191" t="n">
         <v>1.11</v>
@@ -39673,10 +39673,10 @@
         <v>1.8</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -39876,7 +39876,7 @@
         <v>1.67</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT194" t="n">
         <v>1.5</v>
@@ -40079,10 +40079,10 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU195" t="n">
         <v>1.33</v>
@@ -40488,7 +40488,7 @@
         <v>1.5</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU197" t="n">
         <v>1.75</v>
@@ -40894,7 +40894,7 @@
         <v>1.44</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41094,7 +41094,7 @@
         <v>1.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT200" t="n">
         <v>0.78</v>
@@ -41297,10 +41297,10 @@
         <v>1.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU201" t="n">
         <v>1.19</v>
@@ -41503,7 +41503,7 @@
         <v>2.22</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU202" t="n">
         <v>1.67</v>
@@ -41906,7 +41906,7 @@
         <v>0.8</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT204" t="n">
         <v>0.89</v>
@@ -42112,7 +42112,7 @@
         <v>1.33</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU205" t="n">
         <v>1.28</v>
@@ -42518,7 +42518,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU207" t="n">
         <v>1.4</v>
@@ -42718,10 +42718,10 @@
         <v>0.9</v>
       </c>
       <c r="AS208" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU208" t="n">
         <v>1.53</v>
@@ -42921,10 +42921,10 @@
         <v>0.3</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU209" t="n">
         <v>1.4</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT210" t="n">
         <v>0.78</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT211" t="n">
         <v>1.11</v>
@@ -43533,7 +43533,7 @@
         <v>1.17</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU212" t="n">
         <v>1.55</v>
@@ -43733,7 +43733,7 @@
         <v>1.8</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT213" t="n">
         <v>1.5</v>
@@ -43936,7 +43936,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT214" t="n">
         <v>1.28</v>
@@ -44139,10 +44139,10 @@
         <v>0.6</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU215" t="n">
         <v>1.2</v>
@@ -44345,7 +44345,7 @@
         <v>1.44</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU216" t="n">
         <v>1.36</v>
@@ -44548,7 +44548,7 @@
         <v>2.06</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU217" t="n">
         <v>1.52</v>
@@ -44748,7 +44748,7 @@
         <v>1.1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT218" t="n">
         <v>0.78</v>
@@ -44951,7 +44951,7 @@
         <v>1.3</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT219" t="n">
         <v>1.17</v>
@@ -45360,7 +45360,7 @@
         <v>1.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU221" t="n">
         <v>1.77</v>
@@ -45763,10 +45763,10 @@
         <v>0.55</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU223" t="n">
         <v>1.24</v>
@@ -45966,10 +45966,10 @@
         <v>2</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU224" t="n">
         <v>1.73</v>
@@ -46169,7 +46169,7 @@
         <v>1.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT225" t="n">
         <v>1.22</v>
@@ -46372,7 +46372,7 @@
         <v>0.73</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT226" t="n">
         <v>0.89</v>
@@ -46578,7 +46578,7 @@
         <v>1</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU227" t="n">
         <v>1.34</v>
@@ -46781,7 +46781,7 @@
         <v>1.78</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU228" t="n">
         <v>1.3</v>
@@ -46981,7 +46981,7 @@
         <v>1</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT229" t="n">
         <v>0.78</v>
@@ -47390,7 +47390,7 @@
         <v>2.22</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU231" t="n">
         <v>1.67</v>
@@ -47793,7 +47793,7 @@
         <v>1.45</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT233" t="n">
         <v>1.17</v>
@@ -47996,10 +47996,10 @@
         <v>1.36</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU234" t="n">
         <v>1.35</v>
@@ -48199,10 +48199,10 @@
         <v>1.55</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU235" t="n">
         <v>1.25</v>
@@ -48402,7 +48402,7 @@
         <v>1.18</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT236" t="n">
         <v>1.33</v>
@@ -48605,7 +48605,7 @@
         <v>1.64</v>
       </c>
       <c r="AS237" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT237" t="n">
         <v>1.5</v>
@@ -48808,10 +48808,10 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -49014,7 +49014,7 @@
         <v>2.06</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU239" t="n">
         <v>1.52</v>
@@ -49217,7 +49217,7 @@
         <v>1.44</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU240" t="n">
         <v>1.37</v>
@@ -49420,7 +49420,7 @@
         <v>1.78</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU241" t="n">
         <v>1.39</v>
@@ -49620,7 +49620,7 @@
         <v>0.92</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT242" t="n">
         <v>1.11</v>
@@ -49826,7 +49826,7 @@
         <v>1.72</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU243" t="n">
         <v>1.65</v>
@@ -50029,7 +50029,7 @@
         <v>1.89</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU244" t="n">
         <v>1.57</v>
@@ -50229,7 +50229,7 @@
         <v>1.25</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT245" t="n">
         <v>1.22</v>
@@ -50432,7 +50432,7 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT246" t="n">
         <v>0.78</v>
@@ -50638,7 +50638,7 @@
         <v>1.33</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU247" t="n">
         <v>1.37</v>
@@ -50838,7 +50838,7 @@
         <v>1.09</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT248" t="n">
         <v>1.28</v>
@@ -51041,7 +51041,7 @@
         <v>0.45</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT249" t="n">
         <v>0.78</v>
@@ -51247,7 +51247,7 @@
         <v>1.5</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU250" t="n">
         <v>1.72</v>
@@ -51450,7 +51450,7 @@
         <v>2.22</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU251" t="n">
         <v>1.64</v>
@@ -51650,7 +51650,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT252" t="n">
         <v>0.89</v>
@@ -51853,10 +51853,10 @@
         <v>1.5</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -52262,7 +52262,7 @@
         <v>1.5</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU255" t="n">
         <v>1.65</v>
@@ -52665,10 +52665,10 @@
         <v>0.54</v>
       </c>
       <c r="AS257" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU257" t="n">
         <v>1.56</v>
@@ -52868,10 +52868,10 @@
         <v>1.33</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU258" t="n">
         <v>1.24</v>
@@ -53274,7 +53274,7 @@
         <v>1.42</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT260" t="n">
         <v>1.17</v>
@@ -53477,10 +53477,10 @@
         <v>1.62</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU261" t="n">
         <v>1.74</v>
@@ -53683,7 +53683,7 @@
         <v>1.72</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU262" t="n">
         <v>1.7</v>
@@ -53883,10 +53883,10 @@
         <v>1.46</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU263" t="n">
         <v>1.47</v>
@@ -54086,7 +54086,7 @@
         <v>1.08</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT264" t="n">
         <v>1.11</v>
@@ -54289,7 +54289,7 @@
         <v>1.25</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT265" t="n">
         <v>1.28</v>
@@ -54698,7 +54698,7 @@
         <v>1.17</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU267" t="n">
         <v>1.53</v>
@@ -55101,7 +55101,7 @@
         <v>0.5</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT269" t="n">
         <v>0.78</v>
@@ -55307,7 +55307,7 @@
         <v>1.89</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU270" t="n">
         <v>1.59</v>
@@ -55510,7 +55510,7 @@
         <v>1.33</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU271" t="n">
         <v>1.46</v>
@@ -55713,7 +55713,7 @@
         <v>2.06</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU272" t="n">
         <v>1.52</v>
@@ -56319,10 +56319,10 @@
         <v>1.62</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU275" t="n">
         <v>1.51</v>
@@ -56725,7 +56725,7 @@
         <v>1.69</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT277" t="n">
         <v>1.5</v>
@@ -56928,7 +56928,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT278" t="n">
         <v>0.89</v>
@@ -57131,10 +57131,10 @@
         <v>1.23</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU279" t="n">
         <v>1.7</v>
@@ -57337,7 +57337,7 @@
         <v>2.22</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU280" t="n">
         <v>1.63</v>
@@ -57537,10 +57537,10 @@
         <v>0.93</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU281" t="n">
         <v>1.25</v>
@@ -57743,7 +57743,7 @@
         <v>1.72</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU282" t="n">
         <v>1.71</v>
@@ -58349,7 +58349,7 @@
         <v>1.29</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT285" t="n">
         <v>1.22</v>
@@ -58552,10 +58552,10 @@
         <v>1.57</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU286" t="n">
         <v>1.32</v>
@@ -58758,7 +58758,7 @@
         <v>1.78</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU287" t="n">
         <v>1.33</v>
@@ -58958,7 +58958,7 @@
         <v>1.38</v>
       </c>
       <c r="AS288" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT288" t="n">
         <v>1.17</v>
@@ -59164,7 +59164,7 @@
         <v>1.17</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU289" t="n">
         <v>1.55</v>
@@ -59364,7 +59364,7 @@
         <v>0.46</v>
       </c>
       <c r="AS290" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT290" t="n">
         <v>0.78</v>
@@ -59567,10 +59567,10 @@
         <v>1.57</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU291" t="n">
         <v>1.41</v>
@@ -59976,7 +59976,7 @@
         <v>1.5</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU293" t="n">
         <v>1.63</v>
@@ -60379,7 +60379,7 @@
         <v>1</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT295" t="n">
         <v>1.11</v>
@@ -60582,10 +60582,10 @@
         <v>1.14</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU296" t="n">
         <v>1.46</v>
@@ -60788,7 +60788,7 @@
         <v>1.33</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU297" t="n">
         <v>1.44</v>
@@ -61191,7 +61191,7 @@
         <v>1.43</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT299" t="n">
         <v>1.33</v>
@@ -61397,7 +61397,7 @@
         <v>1.17</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU300" t="n">
         <v>1.53</v>
@@ -61597,7 +61597,7 @@
         <v>0.64</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT301" t="n">
         <v>0.89</v>
@@ -61803,7 +61803,7 @@
         <v>1.89</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU302" t="n">
         <v>1.57</v>
@@ -62003,10 +62003,10 @@
         <v>0.6</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT303" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU303" t="n">
         <v>1.34</v>
@@ -62206,7 +62206,7 @@
         <v>0.8</v>
       </c>
       <c r="AS304" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT304" t="n">
         <v>0.78</v>
@@ -62409,10 +62409,10 @@
         <v>1.67</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU305" t="n">
         <v>1.83</v>
@@ -62612,10 +62612,10 @@
         <v>1.07</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU306" t="n">
         <v>1.37</v>
@@ -62815,7 +62815,7 @@
         <v>0.43</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT307" t="n">
         <v>0.78</v>
@@ -63018,7 +63018,7 @@
         <v>0.93</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT308" t="n">
         <v>0.78</v>
@@ -63224,7 +63224,7 @@
         <v>1.44</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU309" t="n">
         <v>1.43</v>
@@ -63424,10 +63424,10 @@
         <v>1.07</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU310" t="n">
         <v>1.72</v>
@@ -63630,7 +63630,7 @@
         <v>1.78</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU311" t="n">
         <v>1.34</v>
@@ -63833,7 +63833,7 @@
         <v>1.72</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU312" t="n">
         <v>1.77</v>
@@ -64033,7 +64033,7 @@
         <v>1.33</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT313" t="n">
         <v>1.33</v>
@@ -64236,7 +64236,7 @@
         <v>1.4</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT314" t="n">
         <v>1.17</v>
@@ -64442,7 +64442,7 @@
         <v>1.33</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU315" t="n">
         <v>1.46</v>
@@ -65048,7 +65048,7 @@
         <v>1.27</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT318" t="n">
         <v>1.28</v>
@@ -65660,7 +65660,7 @@
         <v>2.22</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU321" t="n">
         <v>1.64</v>
@@ -65860,10 +65860,10 @@
         <v>1.94</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU322" t="n">
         <v>1.79</v>
@@ -66066,7 +66066,7 @@
         <v>1.44</v>
       </c>
       <c r="AT323" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU323" t="n">
         <v>1.42</v>
@@ -66266,10 +66266,10 @@
         <v>1.56</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU324" t="n">
         <v>1.34</v>
@@ -66469,7 +66469,7 @@
         <v>0.75</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT325" t="n">
         <v>0.78</v>
@@ -66675,7 +66675,7 @@
         <v>1.89</v>
       </c>
       <c r="AT326" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU326" t="n">
         <v>1.57</v>
@@ -66875,10 +66875,10 @@
         <v>1.25</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU327" t="n">
         <v>1.24</v>
@@ -67081,7 +67081,7 @@
         <v>1.78</v>
       </c>
       <c r="AT328" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU328" t="n">
         <v>1.33</v>
@@ -67281,10 +67281,10 @@
         <v>1</v>
       </c>
       <c r="AS329" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU329" t="n">
         <v>1.63</v>
@@ -67484,7 +67484,7 @@
         <v>0.88</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT330" t="n">
         <v>0.78</v>
@@ -67687,7 +67687,7 @@
         <v>0.47</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT331" t="n">
         <v>0.78</v>
@@ -68502,7 +68502,7 @@
         <v>1</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU335" t="n">
         <v>1.29</v>
@@ -68908,7 +68908,7 @@
         <v>1.33</v>
       </c>
       <c r="AT337" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU337" t="n">
         <v>1.48</v>
@@ -69108,7 +69108,7 @@
         <v>1.25</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT338" t="n">
         <v>1.28</v>
@@ -69311,7 +69311,7 @@
         <v>0.63</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT339" t="n">
         <v>0.78</v>
@@ -69920,10 +69920,10 @@
         <v>1.65</v>
       </c>
       <c r="AS342" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AU342" t="n">
         <v>1.51</v>
@@ -70123,10 +70123,10 @@
         <v>0.41</v>
       </c>
       <c r="AS343" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT343" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AU343" t="n">
         <v>1.78</v>
@@ -70326,10 +70326,10 @@
         <v>0.59</v>
       </c>
       <c r="AS344" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AT344" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU344" t="n">
         <v>1.63</v>
@@ -70529,10 +70529,10 @@
         <v>1</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT345" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU345" t="n">
         <v>1.3</v>
@@ -70732,10 +70732,10 @@
         <v>1.24</v>
       </c>
       <c r="AS346" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT346" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AU346" t="n">
         <v>1.47</v>
@@ -70935,10 +70935,10 @@
         <v>1.12</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT347" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU347" t="n">
         <v>1.31</v>
@@ -71141,7 +71141,7 @@
         <v>1.89</v>
       </c>
       <c r="AT348" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU348" t="n">
         <v>1.61</v>
@@ -71341,7 +71341,7 @@
         <v>1.41</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT349" t="n">
         <v>1.5</v>
@@ -71544,10 +71544,10 @@
         <v>1.53</v>
       </c>
       <c r="AS350" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT350" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU350" t="n">
         <v>1.28</v>
@@ -71747,10 +71747,10 @@
         <v>2</v>
       </c>
       <c r="AS351" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT351" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU351" t="n">
         <v>1.32</v>
@@ -73371,10 +73371,10 @@
         <v>1.82</v>
       </c>
       <c r="AS359" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT359" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU359" t="n">
         <v>1.36</v>
@@ -73832,6 +73832,2036 @@
       </c>
       <c r="BK361" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2468664</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F362" t="n">
+        <v>37</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>1</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="n">
+        <v>2</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>2</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>['31', '90+4']</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q362" t="n">
+        <v>5</v>
+      </c>
+      <c r="R362" t="n">
+        <v>4</v>
+      </c>
+      <c r="S362" t="n">
+        <v>9</v>
+      </c>
+      <c r="T362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U362" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V362" t="n">
+        <v>5</v>
+      </c>
+      <c r="W362" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X362" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ362" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BA362" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB362" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC362" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD362" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BE362" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF362" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG362" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH362" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ362" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK362" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2468661</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="n">
+        <v>1</v>
+      </c>
+      <c r="N363" t="n">
+        <v>2</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q363" t="n">
+        <v>7</v>
+      </c>
+      <c r="R363" t="n">
+        <v>4</v>
+      </c>
+      <c r="S363" t="n">
+        <v>11</v>
+      </c>
+      <c r="T363" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U363" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V363" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W363" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X363" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH363" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ363" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK363" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2468660</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F364" t="n">
+        <v>37</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>1</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q364" t="n">
+        <v>5</v>
+      </c>
+      <c r="R364" t="n">
+        <v>5</v>
+      </c>
+      <c r="S364" t="n">
+        <v>10</v>
+      </c>
+      <c r="T364" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U364" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V364" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="W364" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X364" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ364" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA364" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB364" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC364" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD364" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE364" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF364" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG364" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH364" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ364" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK364" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2468658</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F365" t="n">
+        <v>37</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>0</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>1</v>
+      </c>
+      <c r="N365" t="n">
+        <v>1</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q365" t="n">
+        <v>3</v>
+      </c>
+      <c r="R365" t="n">
+        <v>5</v>
+      </c>
+      <c r="S365" t="n">
+        <v>8</v>
+      </c>
+      <c r="T365" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U365" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V365" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W365" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X365" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ365" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA365" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB365" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC365" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD365" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE365" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF365" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG365" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH365" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ365" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK365" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2468659</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F366" t="n">
+        <v>37</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>1</v>
+      </c>
+      <c r="J366" t="n">
+        <v>3</v>
+      </c>
+      <c r="K366" t="n">
+        <v>4</v>
+      </c>
+      <c r="L366" t="n">
+        <v>2</v>
+      </c>
+      <c r="M366" t="n">
+        <v>3</v>
+      </c>
+      <c r="N366" t="n">
+        <v>5</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>['19', '74']</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>['11', '26', '41']</t>
+        </is>
+      </c>
+      <c r="Q366" t="n">
+        <v>6</v>
+      </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
+      <c r="S366" t="n">
+        <v>6</v>
+      </c>
+      <c r="T366" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U366" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V366" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W366" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X366" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ366" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA366" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB366" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC366" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD366" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE366" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF366" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG366" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH366" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ366" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK366" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2468663</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F367" t="n">
+        <v>37</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>2</v>
+      </c>
+      <c r="K367" t="n">
+        <v>2</v>
+      </c>
+      <c r="L367" t="n">
+        <v>2</v>
+      </c>
+      <c r="M367" t="n">
+        <v>2</v>
+      </c>
+      <c r="N367" t="n">
+        <v>4</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>['83', '85']</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>['15', '23']</t>
+        </is>
+      </c>
+      <c r="Q367" t="n">
+        <v>6</v>
+      </c>
+      <c r="R367" t="n">
+        <v>3</v>
+      </c>
+      <c r="S367" t="n">
+        <v>9</v>
+      </c>
+      <c r="T367" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U367" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V367" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W367" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X367" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ367" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA367" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB367" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC367" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD367" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE367" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF367" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG367" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH367" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ367" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK367" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2468657</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F368" t="n">
+        <v>37</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>2</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>2</v>
+      </c>
+      <c r="L368" t="n">
+        <v>2</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>2</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>['18', '36']</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q368" t="n">
+        <v>5</v>
+      </c>
+      <c r="R368" t="n">
+        <v>2</v>
+      </c>
+      <c r="S368" t="n">
+        <v>7</v>
+      </c>
+      <c r="T368" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U368" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V368" t="n">
+        <v>5</v>
+      </c>
+      <c r="W368" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X368" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ368" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="BA368" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB368" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC368" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD368" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE368" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF368" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG368" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH368" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ368" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK368" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2468656</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F369" t="n">
+        <v>37</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>1</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="n">
+        <v>3</v>
+      </c>
+      <c r="N369" t="n">
+        <v>4</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>['52', '74', '86']</t>
+        </is>
+      </c>
+      <c r="Q369" t="n">
+        <v>10</v>
+      </c>
+      <c r="R369" t="n">
+        <v>4</v>
+      </c>
+      <c r="S369" t="n">
+        <v>14</v>
+      </c>
+      <c r="T369" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U369" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V369" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W369" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X369" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH369" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ369" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK369" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL369" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN369" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP369" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ369" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR369" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS369" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT369" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU369" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW369" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX369" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY369" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ369" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA369" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB369" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC369" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD369" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE369" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF369" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG369" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH369" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI369" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ369" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK369" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3168643</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F370" t="n">
+        <v>37</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>1</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>1</v>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>1</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q370" t="n">
+        <v>1</v>
+      </c>
+      <c r="R370" t="n">
+        <v>6</v>
+      </c>
+      <c r="S370" t="n">
+        <v>7</v>
+      </c>
+      <c r="T370" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U370" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V370" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W370" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X370" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH370" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ370" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK370" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL370" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN370" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO370" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP370" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ370" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR370" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS370" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT370" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU370" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW370" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX370" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AY370" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ370" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA370" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB370" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC370" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD370" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BE370" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF370" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG370" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH370" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ370" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK370" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2468662</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>45072.65625</v>
+      </c>
+      <c r="F371" t="n">
+        <v>37</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="n">
+        <v>1</v>
+      </c>
+      <c r="N371" t="n">
+        <v>2</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q371" t="n">
+        <v>5</v>
+      </c>
+      <c r="R371" t="n">
+        <v>6</v>
+      </c>
+      <c r="S371" t="n">
+        <v>11</v>
+      </c>
+      <c r="T371" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U371" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V371" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W371" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X371" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY371" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ371" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA371" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB371" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC371" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD371" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE371" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF371" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG371" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH371" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI371" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ371" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK371" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,24 @@
     <t>['18', '36']</t>
   </si>
   <si>
+    <t>['48', '81']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['34', '44', '90+3']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['9', '75', '86']</t>
+  </si>
+  <si>
+    <t>['31', '55', '75']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -982,9 +1000,6 @@
     <t>['40', '90+2']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['76', '90+1']</t>
   </si>
   <si>
@@ -1022,9 +1037,6 @@
   </si>
   <si>
     <t>['2', '78']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['36', '82', '87', '90+1']</t>
@@ -1274,6 +1286,18 @@
   </si>
   <si>
     <t>['52', '74', '86']</t>
+  </si>
+  <si>
+    <t>['11', '54']</t>
+  </si>
+  <si>
+    <t>['68', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+1', '49', '66']</t>
+  </si>
+  <si>
+    <t>['68', '86']</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK371"/>
+  <dimension ref="A1:BK380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2539,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2643,7 +2667,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2730,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT6">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2924,7 +2948,7 @@
         <v>2.22</v>
       </c>
       <c r="AT7">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3025,7 +3049,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3303,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT9">
         <v>1.05</v>
@@ -3407,7 +3431,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3497,7 +3521,7 @@
         <v>1.95</v>
       </c>
       <c r="AT10">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3876,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT12">
         <v>0.37</v>
@@ -3980,7 +4004,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4258,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT14">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4362,7 +4386,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -4452,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4640,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT16">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4831,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5213,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT19">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5317,7 +5341,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5407,7 +5431,7 @@
         <v>1.53</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5977,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT23">
         <v>1.21</v>
@@ -6168,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT24">
         <v>1.33</v>
@@ -6359,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT25">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -6845,7 +6869,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6935,7 +6959,7 @@
         <v>1.63</v>
       </c>
       <c r="AT28">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU28">
         <v>1.4</v>
@@ -7036,7 +7060,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7126,7 +7150,7 @@
         <v>1.47</v>
       </c>
       <c r="AT29">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU29">
         <v>1.27</v>
@@ -7418,7 +7442,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7609,7 +7633,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7696,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT32">
         <v>1.84</v>
@@ -7800,7 +7824,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7887,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT33">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU33">
         <v>1.02</v>
@@ -8081,7 +8105,7 @@
         <v>2.05</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -8182,7 +8206,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8460,10 +8484,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT36">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU36">
         <v>0.9</v>
@@ -8654,7 +8678,7 @@
         <v>1.53</v>
       </c>
       <c r="AT37">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8755,7 +8779,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -9137,7 +9161,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9227,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU40">
         <v>1</v>
@@ -9415,7 +9439,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT41">
         <v>1.53</v>
@@ -9519,7 +9543,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9606,10 +9630,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT42">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU42">
         <v>1.46</v>
@@ -9800,7 +9824,7 @@
         <v>2.22</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9988,7 +10012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT44">
         <v>1.05</v>
@@ -10092,7 +10116,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -10283,7 +10307,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10474,7 +10498,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10561,10 +10585,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT47">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -11325,10 +11349,10 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT51">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -11519,7 +11543,7 @@
         <v>2.22</v>
       </c>
       <c r="AT52">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11620,7 +11644,7 @@
         <v>97</v>
       </c>
       <c r="P53" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11710,7 +11734,7 @@
         <v>1.32</v>
       </c>
       <c r="AT53">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU53">
         <v>1.29</v>
@@ -11811,7 +11835,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -12002,7 +12026,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -12092,7 +12116,7 @@
         <v>1.47</v>
       </c>
       <c r="AT55">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU55">
         <v>1.65</v>
@@ -12283,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU56">
         <v>1.76</v>
@@ -12384,7 +12408,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12471,7 +12495,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT57">
         <v>1.47</v>
@@ -12575,7 +12599,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12662,7 +12686,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT58">
         <v>0.37</v>
@@ -12766,7 +12790,7 @@
         <v>92</v>
       </c>
       <c r="P59" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13044,10 +13068,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT60">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU60">
         <v>1.45</v>
@@ -13426,10 +13450,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT62">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13617,7 +13641,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13811,7 +13835,7 @@
         <v>1.95</v>
       </c>
       <c r="AT64">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13999,10 +14023,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT65">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU65">
         <v>1.66</v>
@@ -14103,7 +14127,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14193,7 +14217,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU66">
         <v>1.68</v>
@@ -14294,7 +14318,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14485,7 +14509,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -14676,7 +14700,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14763,7 +14787,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT69">
         <v>1.53</v>
@@ -14954,7 +14978,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT70">
         <v>1.16</v>
@@ -15145,7 +15169,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT71">
         <v>1.53</v>
@@ -15249,7 +15273,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15339,7 +15363,7 @@
         <v>1.47</v>
       </c>
       <c r="AT72">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -15440,7 +15464,7 @@
         <v>109</v>
       </c>
       <c r="P73" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15527,7 +15551,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT73">
         <v>1.47</v>
@@ -15912,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -16294,7 +16318,7 @@
         <v>1.63</v>
       </c>
       <c r="AT77">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU77">
         <v>1.35</v>
@@ -16673,10 +16697,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT79">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU79">
         <v>1.51</v>
@@ -16777,7 +16801,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16864,10 +16888,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU80">
         <v>1.72</v>
@@ -17058,7 +17082,7 @@
         <v>2.22</v>
       </c>
       <c r="AT81">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU81">
         <v>1.45</v>
@@ -17350,7 +17374,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17440,7 +17464,7 @@
         <v>1.42</v>
       </c>
       <c r="AT83">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU83">
         <v>1.43</v>
@@ -17541,7 +17565,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17732,7 +17756,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17819,7 +17843,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -18010,10 +18034,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT86">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -18201,10 +18225,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT87">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU87">
         <v>1.52</v>
@@ -18392,7 +18416,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT88">
         <v>0.53</v>
@@ -18774,10 +18798,10 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT90">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU90">
         <v>1.36</v>
@@ -18878,7 +18902,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18965,7 +18989,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -19069,7 +19093,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19159,7 +19183,7 @@
         <v>2.05</v>
       </c>
       <c r="AT92">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU92">
         <v>1.88</v>
@@ -19347,7 +19371,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
         <v>1.47</v>
@@ -19642,7 +19666,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19732,7 +19756,7 @@
         <v>1.53</v>
       </c>
       <c r="AT95">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU95">
         <v>1.15</v>
@@ -19833,7 +19857,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -20114,7 +20138,7 @@
         <v>1.63</v>
       </c>
       <c r="AT97">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -20302,7 +20326,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT98">
         <v>1.21</v>
@@ -20496,7 +20520,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU99">
         <v>1.43</v>
@@ -21170,7 +21194,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21260,7 +21284,7 @@
         <v>1.32</v>
       </c>
       <c r="AT103">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU103">
         <v>1.5</v>
@@ -21639,10 +21663,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT105">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU105">
         <v>1.54</v>
@@ -21743,7 +21767,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21830,7 +21854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT106">
         <v>1.33</v>
@@ -21934,7 +21958,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22021,10 +22045,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT107">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -22125,7 +22149,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22212,10 +22236,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT108">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU108">
         <v>1.33</v>
@@ -22403,10 +22427,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT109">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU109">
         <v>1.31</v>
@@ -22889,7 +22913,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22976,7 +23000,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT112">
         <v>1.47</v>
@@ -23080,7 +23104,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23358,10 +23382,10 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT114">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -23462,7 +23486,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23743,7 +23767,7 @@
         <v>1.53</v>
       </c>
       <c r="AT116">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -24125,7 +24149,7 @@
         <v>1.53</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU118">
         <v>1.24</v>
@@ -24316,7 +24340,7 @@
         <v>1.47</v>
       </c>
       <c r="AT119">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU119">
         <v>1.26</v>
@@ -24504,7 +24528,7 @@
         <v>1.4</v>
       </c>
       <c r="AS120">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT120">
         <v>1.05</v>
@@ -24608,7 +24632,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24886,7 +24910,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT122">
         <v>1.16</v>
@@ -25080,7 +25104,7 @@
         <v>1</v>
       </c>
       <c r="AT123">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25268,10 +25292,10 @@
         <v>1.5</v>
       </c>
       <c r="AS124">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT124">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU124">
         <v>1.46</v>
@@ -25459,10 +25483,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT125">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU125">
         <v>1.3</v>
@@ -25653,7 +25677,7 @@
         <v>2.22</v>
       </c>
       <c r="AT126">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU126">
         <v>1.53</v>
@@ -25754,7 +25778,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25844,7 +25868,7 @@
         <v>1.63</v>
       </c>
       <c r="AT127">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU127">
         <v>1.81</v>
@@ -26035,7 +26059,7 @@
         <v>1.32</v>
       </c>
       <c r="AT128">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU128">
         <v>1.53</v>
@@ -26414,7 +26438,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT130">
         <v>0.37</v>
@@ -26605,7 +26629,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT131">
         <v>1.84</v>
@@ -26796,7 +26820,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT132">
         <v>1.53</v>
@@ -26900,7 +26924,7 @@
         <v>131</v>
       </c>
       <c r="P133" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26990,7 +27014,7 @@
         <v>1.47</v>
       </c>
       <c r="AT133">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU133">
         <v>1.19</v>
@@ -27181,7 +27205,7 @@
         <v>1.63</v>
       </c>
       <c r="AT134">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -27754,7 +27778,7 @@
         <v>1.53</v>
       </c>
       <c r="AT137">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU137">
         <v>1.26</v>
@@ -28133,7 +28157,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT139">
         <v>1.05</v>
@@ -28428,7 +28452,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28515,7 +28539,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT141">
         <v>1.16</v>
@@ -28619,7 +28643,7 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28706,7 +28730,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT142">
         <v>1.33</v>
@@ -28900,7 +28924,7 @@
         <v>1.53</v>
       </c>
       <c r="AT143">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU143">
         <v>1.58</v>
@@ -29091,7 +29115,7 @@
         <v>1.63</v>
       </c>
       <c r="AT144">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU144">
         <v>1.77</v>
@@ -29192,7 +29216,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29279,7 +29303,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT145">
         <v>1.84</v>
@@ -29470,10 +29494,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT146">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU146">
         <v>1.3</v>
@@ -29765,7 +29789,7 @@
         <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29852,10 +29876,10 @@
         <v>0.86</v>
       </c>
       <c r="AS148">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT148">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU148">
         <v>1.62</v>
@@ -29956,7 +29980,7 @@
         <v>115</v>
       </c>
       <c r="P149" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -30237,7 +30261,7 @@
         <v>2.05</v>
       </c>
       <c r="AT150">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU150">
         <v>1.76</v>
@@ -30807,7 +30831,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT153">
         <v>1.53</v>
@@ -31001,7 +31025,7 @@
         <v>1.47</v>
       </c>
       <c r="AT154">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU154">
         <v>1.18</v>
@@ -31380,7 +31404,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT156">
         <v>0.53</v>
@@ -31866,7 +31890,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31953,7 +31977,7 @@
         <v>1.88</v>
       </c>
       <c r="AS159">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT159">
         <v>1.47</v>
@@ -32147,7 +32171,7 @@
         <v>1.95</v>
       </c>
       <c r="AT160">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU160">
         <v>1.47</v>
@@ -32248,7 +32272,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -32335,10 +32359,10 @@
         <v>1.57</v>
       </c>
       <c r="AS161">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT161">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32529,7 +32553,7 @@
         <v>2.22</v>
       </c>
       <c r="AT162">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU162">
         <v>1.76</v>
@@ -32717,10 +32741,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT163">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32911,7 +32935,7 @@
         <v>1</v>
       </c>
       <c r="AT164">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU164">
         <v>1.32</v>
@@ -33102,7 +33126,7 @@
         <v>1.95</v>
       </c>
       <c r="AT165">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU165">
         <v>1.44</v>
@@ -33481,7 +33505,7 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT167">
         <v>1.84</v>
@@ -33672,7 +33696,7 @@
         <v>2.13</v>
       </c>
       <c r="AS168">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT168">
         <v>1.84</v>
@@ -33776,7 +33800,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q169">
         <v>9</v>
@@ -34158,7 +34182,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34248,7 +34272,7 @@
         <v>1.32</v>
       </c>
       <c r="AT171">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU171">
         <v>1.47</v>
@@ -34349,7 +34373,7 @@
         <v>184</v>
       </c>
       <c r="P172" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q172">
         <v>10</v>
@@ -34627,10 +34651,10 @@
         <v>1.25</v>
       </c>
       <c r="AS173">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT173">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU173">
         <v>1.54</v>
@@ -34731,7 +34755,7 @@
         <v>115</v>
       </c>
       <c r="P174" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -34818,7 +34842,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT174">
         <v>1.84</v>
@@ -35012,7 +35036,7 @@
         <v>1.42</v>
       </c>
       <c r="AT175">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU175">
         <v>1.5</v>
@@ -35200,10 +35224,10 @@
         <v>1.25</v>
       </c>
       <c r="AS176">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT176">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU176">
         <v>1.65</v>
@@ -35391,10 +35415,10 @@
         <v>0.63</v>
       </c>
       <c r="AS177">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT177">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU177">
         <v>1.23</v>
@@ -35686,7 +35710,7 @@
         <v>188</v>
       </c>
       <c r="P179" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35776,7 +35800,7 @@
         <v>1.53</v>
       </c>
       <c r="AT179">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU179">
         <v>1.3</v>
@@ -35964,10 +35988,10 @@
         <v>1.75</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT180">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU180">
         <v>1.72</v>
@@ -36155,7 +36179,7 @@
         <v>1.13</v>
       </c>
       <c r="AS181">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -36346,7 +36370,7 @@
         <v>0.33</v>
       </c>
       <c r="AS182">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT182">
         <v>0.37</v>
@@ -36922,7 +36946,7 @@
         <v>1.47</v>
       </c>
       <c r="AT185">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU185">
         <v>1.19</v>
@@ -37110,10 +37134,10 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT186">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU186">
         <v>1.52</v>
@@ -37214,7 +37238,7 @@
         <v>195</v>
       </c>
       <c r="P187" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37596,7 +37620,7 @@
         <v>197</v>
       </c>
       <c r="P189" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37978,7 +38002,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -38068,7 +38092,7 @@
         <v>1.63</v>
       </c>
       <c r="AT191">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU191">
         <v>1.77</v>
@@ -38169,7 +38193,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q192">
         <v>8</v>
@@ -38256,10 +38280,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT192">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU192">
         <v>1.68</v>
@@ -38551,7 +38575,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38641,7 +38665,7 @@
         <v>1</v>
       </c>
       <c r="AT194">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU194">
         <v>1.27</v>
@@ -38742,7 +38766,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -39020,10 +39044,10 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT196">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU196">
         <v>1.3</v>
@@ -39211,7 +39235,7 @@
         <v>2</v>
       </c>
       <c r="AS197">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT197">
         <v>1.84</v>
@@ -39315,7 +39339,7 @@
         <v>202</v>
       </c>
       <c r="P198" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39402,10 +39426,10 @@
         <v>1.11</v>
       </c>
       <c r="AS198">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT198">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39506,7 +39530,7 @@
         <v>203</v>
       </c>
       <c r="P199" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39593,7 +39617,7 @@
         <v>0.67</v>
       </c>
       <c r="AS199">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT199">
         <v>0.53</v>
@@ -39787,7 +39811,7 @@
         <v>2.05</v>
       </c>
       <c r="AT200">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU200">
         <v>1.77</v>
@@ -39888,7 +39912,7 @@
         <v>86</v>
       </c>
       <c r="P201" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -40079,7 +40103,7 @@
         <v>204</v>
       </c>
       <c r="P202" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40357,7 +40381,7 @@
         <v>1.2</v>
       </c>
       <c r="AS203">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT203">
         <v>1.33</v>
@@ -40551,7 +40575,7 @@
         <v>1.63</v>
       </c>
       <c r="AT204">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU204">
         <v>1.73</v>
@@ -40739,7 +40763,7 @@
         <v>0.9</v>
       </c>
       <c r="AS205">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT205">
         <v>1.21</v>
@@ -40930,10 +40954,10 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT206">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU206">
         <v>1.29</v>
@@ -41034,7 +41058,7 @@
         <v>207</v>
       </c>
       <c r="P207" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -41416,7 +41440,7 @@
         <v>209</v>
       </c>
       <c r="P209" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41697,7 +41721,7 @@
         <v>1.53</v>
       </c>
       <c r="AT210">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU210">
         <v>1.51</v>
@@ -41888,7 +41912,7 @@
         <v>1.63</v>
       </c>
       <c r="AT211">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU211">
         <v>1.36</v>
@@ -41989,7 +42013,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42076,7 +42100,7 @@
         <v>1.5</v>
       </c>
       <c r="AS212">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT212">
         <v>1.53</v>
@@ -42270,7 +42294,7 @@
         <v>1.42</v>
       </c>
       <c r="AT213">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU213">
         <v>1.47</v>
@@ -42461,7 +42485,7 @@
         <v>2.05</v>
       </c>
       <c r="AT214">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU214">
         <v>1.78</v>
@@ -42753,7 +42777,7 @@
         <v>86</v>
       </c>
       <c r="P216" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42840,7 +42864,7 @@
         <v>1.3</v>
       </c>
       <c r="AS216">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT216">
         <v>1</v>
@@ -43031,7 +43055,7 @@
         <v>1.64</v>
       </c>
       <c r="AS217">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT217">
         <v>1.47</v>
@@ -43225,7 +43249,7 @@
         <v>1.53</v>
       </c>
       <c r="AT218">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU218">
         <v>1.28</v>
@@ -43416,7 +43440,7 @@
         <v>1</v>
       </c>
       <c r="AT219">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU219">
         <v>1.27</v>
@@ -43517,7 +43541,7 @@
         <v>214</v>
       </c>
       <c r="P220" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q220">
         <v>5</v>
@@ -43604,10 +43628,10 @@
         <v>1.1</v>
       </c>
       <c r="AS220">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT220">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU220">
         <v>1.68</v>
@@ -43708,7 +43732,7 @@
         <v>86</v>
       </c>
       <c r="P221" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -43795,7 +43819,7 @@
         <v>1.4</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT221">
         <v>1.84</v>
@@ -43986,10 +44010,10 @@
         <v>0.5</v>
       </c>
       <c r="AS222">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT222">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU222">
         <v>1.7</v>
@@ -44281,7 +44305,7 @@
         <v>112</v>
       </c>
       <c r="P224" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44562,7 +44586,7 @@
         <v>1.95</v>
       </c>
       <c r="AT225">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44753,7 +44777,7 @@
         <v>1.32</v>
       </c>
       <c r="AT226">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU226">
         <v>1.4</v>
@@ -45132,7 +45156,7 @@
         <v>1.09</v>
       </c>
       <c r="AS228">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT228">
         <v>1.21</v>
@@ -45326,7 +45350,7 @@
         <v>1.53</v>
       </c>
       <c r="AT229">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU229">
         <v>1.52</v>
@@ -45514,10 +45538,10 @@
         <v>0.91</v>
       </c>
       <c r="AS230">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT230">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU230">
         <v>1.56</v>
@@ -45896,10 +45920,10 @@
         <v>1</v>
       </c>
       <c r="AS232">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT232">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU232">
         <v>1.53</v>
@@ -46090,7 +46114,7 @@
         <v>1.42</v>
       </c>
       <c r="AT233">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU233">
         <v>1.47</v>
@@ -46854,7 +46878,7 @@
         <v>1.95</v>
       </c>
       <c r="AT237">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU237">
         <v>1.52</v>
@@ -47233,7 +47257,7 @@
         <v>0.82</v>
       </c>
       <c r="AS239">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT239">
         <v>0.53</v>
@@ -47337,7 +47361,7 @@
         <v>222</v>
       </c>
       <c r="P240" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q240">
         <v>9</v>
@@ -47424,7 +47448,7 @@
         <v>0.82</v>
       </c>
       <c r="AS240">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT240">
         <v>1.16</v>
@@ -47615,7 +47639,7 @@
         <v>1.92</v>
       </c>
       <c r="AS241">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT241">
         <v>1.84</v>
@@ -47719,7 +47743,7 @@
         <v>115</v>
       </c>
       <c r="P242" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -47809,7 +47833,7 @@
         <v>1.32</v>
       </c>
       <c r="AT242">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU242">
         <v>1.44</v>
@@ -47997,7 +48021,7 @@
         <v>1.08</v>
       </c>
       <c r="AS243">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT243">
         <v>1.21</v>
@@ -48188,7 +48212,7 @@
         <v>0.58</v>
       </c>
       <c r="AS244">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT244">
         <v>0.37</v>
@@ -48382,7 +48406,7 @@
         <v>1.53</v>
       </c>
       <c r="AT245">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU245">
         <v>1.5</v>
@@ -48573,7 +48597,7 @@
         <v>1.63</v>
       </c>
       <c r="AT246">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU246">
         <v>1.75</v>
@@ -48761,7 +48785,7 @@
         <v>0.75</v>
       </c>
       <c r="AS247">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT247">
         <v>0.53</v>
@@ -48865,7 +48889,7 @@
         <v>86</v>
       </c>
       <c r="P248" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -48955,7 +48979,7 @@
         <v>1</v>
       </c>
       <c r="AT248">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU248">
         <v>1.22</v>
@@ -49056,7 +49080,7 @@
         <v>227</v>
       </c>
       <c r="P249" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q249">
         <v>3</v>
@@ -49146,7 +49170,7 @@
         <v>1.53</v>
       </c>
       <c r="AT249">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU249">
         <v>1.3</v>
@@ -49247,7 +49271,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49334,7 +49358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS250">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT250">
         <v>1.53</v>
@@ -49629,7 +49653,7 @@
         <v>162</v>
       </c>
       <c r="P252" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q252">
         <v>11</v>
@@ -49719,7 +49743,7 @@
         <v>1.42</v>
       </c>
       <c r="AT252">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU252">
         <v>1.48</v>
@@ -49820,7 +49844,7 @@
         <v>86</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q253">
         <v>6</v>
@@ -50011,7 +50035,7 @@
         <v>230</v>
       </c>
       <c r="P254" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q254">
         <v>5</v>
@@ -50098,10 +50122,10 @@
         <v>1.58</v>
       </c>
       <c r="AS254">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT254">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU254">
         <v>1.44</v>
@@ -50289,7 +50313,7 @@
         <v>1</v>
       </c>
       <c r="AS255">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT255">
         <v>1.21</v>
@@ -50393,7 +50417,7 @@
         <v>231</v>
       </c>
       <c r="P256" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50584,7 +50608,7 @@
         <v>232</v>
       </c>
       <c r="P257" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q257">
         <v>2</v>
@@ -51053,10 +51077,10 @@
         <v>1.17</v>
       </c>
       <c r="AS259">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT259">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU259">
         <v>1.54</v>
@@ -51247,7 +51271,7 @@
         <v>2.05</v>
       </c>
       <c r="AT260">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU260">
         <v>1.83</v>
@@ -51626,7 +51650,7 @@
         <v>1.25</v>
       </c>
       <c r="AS262">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT262">
         <v>1.05</v>
@@ -51730,7 +51754,7 @@
         <v>235</v>
       </c>
       <c r="P263" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q263">
         <v>3</v>
@@ -51921,7 +51945,7 @@
         <v>236</v>
       </c>
       <c r="P264" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q264">
         <v>2</v>
@@ -52011,7 +52035,7 @@
         <v>1</v>
       </c>
       <c r="AT264">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU264">
         <v>1.24</v>
@@ -52112,7 +52136,7 @@
         <v>237</v>
       </c>
       <c r="P265" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q265">
         <v>1</v>
@@ -52202,7 +52226,7 @@
         <v>1.53</v>
       </c>
       <c r="AT265">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU265">
         <v>1.32</v>
@@ -52390,10 +52414,10 @@
         <v>0.92</v>
       </c>
       <c r="AS266">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT266">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU266">
         <v>1.32</v>
@@ -52581,7 +52605,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS267">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT267">
         <v>0.53</v>
@@ -52772,10 +52796,10 @@
         <v>1.38</v>
       </c>
       <c r="AS268">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT268">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU268">
         <v>1.37</v>
@@ -52966,7 +52990,7 @@
         <v>1.32</v>
       </c>
       <c r="AT269">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU269">
         <v>1.42</v>
@@ -53154,7 +53178,7 @@
         <v>1.85</v>
       </c>
       <c r="AS270">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT270">
         <v>1.84</v>
@@ -53345,7 +53369,7 @@
         <v>1.23</v>
       </c>
       <c r="AS271">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT271">
         <v>1.05</v>
@@ -53449,7 +53473,7 @@
         <v>244</v>
       </c>
       <c r="P272" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q272">
         <v>2</v>
@@ -53536,7 +53560,7 @@
         <v>1</v>
       </c>
       <c r="AS272">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT272">
         <v>1.16</v>
@@ -53640,7 +53664,7 @@
         <v>245</v>
       </c>
       <c r="P273" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q273">
         <v>5</v>
@@ -53727,7 +53751,7 @@
         <v>1.31</v>
       </c>
       <c r="AS273">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT273">
         <v>1.33</v>
@@ -53918,10 +53942,10 @@
         <v>1.23</v>
       </c>
       <c r="AS274">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT274">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU274">
         <v>1.46</v>
@@ -54022,7 +54046,7 @@
         <v>189</v>
       </c>
       <c r="P275" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -54213,7 +54237,7 @@
         <v>246</v>
       </c>
       <c r="P276" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q276">
         <v>1</v>
@@ -54303,7 +54327,7 @@
         <v>1</v>
       </c>
       <c r="AT276">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU276">
         <v>1.28</v>
@@ -54494,7 +54518,7 @@
         <v>1.63</v>
       </c>
       <c r="AT277">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU277">
         <v>1.4</v>
@@ -54685,7 +54709,7 @@
         <v>2.05</v>
       </c>
       <c r="AT278">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU278">
         <v>1.84</v>
@@ -55446,7 +55470,7 @@
         <v>0.64</v>
       </c>
       <c r="AS282">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT282">
         <v>0.53</v>
@@ -55637,10 +55661,10 @@
         <v>0.86</v>
       </c>
       <c r="AS283">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT283">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU283">
         <v>1.4</v>
@@ -55828,10 +55852,10 @@
         <v>1</v>
       </c>
       <c r="AS284">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT284">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU284">
         <v>1.59</v>
@@ -56022,7 +56046,7 @@
         <v>1</v>
       </c>
       <c r="AT285">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU285">
         <v>1.24</v>
@@ -56123,7 +56147,7 @@
         <v>254</v>
       </c>
       <c r="P286" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q286">
         <v>4</v>
@@ -56401,7 +56425,7 @@
         <v>1.14</v>
       </c>
       <c r="AS287">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT287">
         <v>1.05</v>
@@ -56505,7 +56529,7 @@
         <v>256</v>
       </c>
       <c r="P288" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q288">
         <v>12</v>
@@ -56595,7 +56619,7 @@
         <v>1.95</v>
       </c>
       <c r="AT288">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU288">
         <v>1.62</v>
@@ -56783,7 +56807,7 @@
         <v>1.79</v>
       </c>
       <c r="AS289">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT289">
         <v>1.84</v>
@@ -56887,7 +56911,7 @@
         <v>257</v>
       </c>
       <c r="P290" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q290">
         <v>4</v>
@@ -56977,7 +57001,7 @@
         <v>2.05</v>
       </c>
       <c r="AT290">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU290">
         <v>1.83</v>
@@ -57359,7 +57383,7 @@
         <v>2.22</v>
       </c>
       <c r="AT292">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU292">
         <v>1.66</v>
@@ -57547,7 +57571,7 @@
         <v>0.47</v>
       </c>
       <c r="AS293">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT293">
         <v>0.37</v>
@@ -57738,10 +57762,10 @@
         <v>1.64</v>
       </c>
       <c r="AS294">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT294">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU294">
         <v>1.5</v>
@@ -57932,7 +57956,7 @@
         <v>1.42</v>
       </c>
       <c r="AT295">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU295">
         <v>1.53</v>
@@ -58224,7 +58248,7 @@
         <v>260</v>
       </c>
       <c r="P297" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q297">
         <v>2</v>
@@ -58311,7 +58335,7 @@
         <v>1</v>
       </c>
       <c r="AS297">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT297">
         <v>1.16</v>
@@ -58415,7 +58439,7 @@
         <v>86</v>
       </c>
       <c r="P298" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q298">
         <v>5</v>
@@ -58505,7 +58529,7 @@
         <v>1</v>
       </c>
       <c r="AT298">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU298">
         <v>1.29</v>
@@ -58797,7 +58821,7 @@
         <v>261</v>
       </c>
       <c r="P300" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q300">
         <v>1</v>
@@ -58884,7 +58908,7 @@
         <v>1.71</v>
       </c>
       <c r="AS300">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT300">
         <v>1.84</v>
@@ -59078,7 +59102,7 @@
         <v>1.63</v>
       </c>
       <c r="AT301">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU301">
         <v>1.38</v>
@@ -59266,7 +59290,7 @@
         <v>1.67</v>
       </c>
       <c r="AS302">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT302">
         <v>1.53</v>
@@ -59651,7 +59675,7 @@
         <v>1.95</v>
       </c>
       <c r="AT304">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU304">
         <v>1.63</v>
@@ -60134,7 +60158,7 @@
         <v>267</v>
       </c>
       <c r="P307" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -60224,7 +60248,7 @@
         <v>1.42</v>
       </c>
       <c r="AT307">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU307">
         <v>1.53</v>
@@ -60415,7 +60439,7 @@
         <v>1</v>
       </c>
       <c r="AT308">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU308">
         <v>1.25</v>
@@ -60516,7 +60540,7 @@
         <v>86</v>
       </c>
       <c r="P309" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q309">
         <v>0</v>
@@ -60603,7 +60627,7 @@
         <v>1.87</v>
       </c>
       <c r="AS309">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT309">
         <v>1.84</v>
@@ -60707,7 +60731,7 @@
         <v>268</v>
       </c>
       <c r="P310" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -60898,7 +60922,7 @@
         <v>86</v>
       </c>
       <c r="P311" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q311">
         <v>5</v>
@@ -60985,7 +61009,7 @@
         <v>1.13</v>
       </c>
       <c r="AS311">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT311">
         <v>1.16</v>
@@ -61089,7 +61113,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q312">
         <v>2</v>
@@ -61176,7 +61200,7 @@
         <v>1.67</v>
       </c>
       <c r="AS312">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT312">
         <v>1.84</v>
@@ -61280,7 +61304,7 @@
         <v>86</v>
       </c>
       <c r="P313" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q313">
         <v>8</v>
@@ -61561,7 +61585,7 @@
         <v>1.53</v>
       </c>
       <c r="AT314">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU314">
         <v>1.49</v>
@@ -61749,7 +61773,7 @@
         <v>0.44</v>
       </c>
       <c r="AS315">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT315">
         <v>0.37</v>
@@ -61853,7 +61877,7 @@
         <v>86</v>
       </c>
       <c r="P316" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q316">
         <v>8</v>
@@ -61940,10 +61964,10 @@
         <v>0.6</v>
       </c>
       <c r="AS316">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT316">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU316">
         <v>1.62</v>
@@ -62134,7 +62158,7 @@
         <v>1</v>
       </c>
       <c r="AT317">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU317">
         <v>1.29</v>
@@ -62235,7 +62259,7 @@
         <v>132</v>
       </c>
       <c r="P318" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q318">
         <v>10</v>
@@ -62325,7 +62349,7 @@
         <v>1.47</v>
       </c>
       <c r="AT318">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU318">
         <v>1.28</v>
@@ -62513,10 +62537,10 @@
         <v>1.6</v>
       </c>
       <c r="AS319">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT319">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU319">
         <v>1.49</v>
@@ -62704,10 +62728,10 @@
         <v>1.2</v>
       </c>
       <c r="AS320">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT320">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU320">
         <v>1.47</v>
@@ -62999,7 +63023,7 @@
         <v>274</v>
       </c>
       <c r="P322" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q322">
         <v>8</v>
@@ -63190,7 +63214,7 @@
         <v>275</v>
       </c>
       <c r="P323" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q323">
         <v>8</v>
@@ -63277,7 +63301,7 @@
         <v>1.19</v>
       </c>
       <c r="AS323">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT323">
         <v>1.21</v>
@@ -63381,7 +63405,7 @@
         <v>86</v>
       </c>
       <c r="P324" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -63572,7 +63596,7 @@
         <v>276</v>
       </c>
       <c r="P325" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q325">
         <v>5</v>
@@ -63662,7 +63686,7 @@
         <v>1.42</v>
       </c>
       <c r="AT325">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU325">
         <v>1.53</v>
@@ -63850,7 +63874,7 @@
         <v>1.56</v>
       </c>
       <c r="AS326">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT326">
         <v>1.47</v>
@@ -63954,7 +63978,7 @@
         <v>277</v>
       </c>
       <c r="P327" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q327">
         <v>4</v>
@@ -64232,7 +64256,7 @@
         <v>0.63</v>
       </c>
       <c r="AS328">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT328">
         <v>0.53</v>
@@ -64527,7 +64551,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q330">
         <v>1</v>
@@ -64617,7 +64641,7 @@
         <v>1.32</v>
       </c>
       <c r="AT330">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU330">
         <v>1.36</v>
@@ -64718,7 +64742,7 @@
         <v>86</v>
       </c>
       <c r="P331" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -64808,7 +64832,7 @@
         <v>1.63</v>
       </c>
       <c r="AT331">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU331">
         <v>1.74</v>
@@ -64999,7 +65023,7 @@
         <v>2.22</v>
       </c>
       <c r="AT332">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU332">
         <v>1.69</v>
@@ -65100,7 +65124,7 @@
         <v>280</v>
       </c>
       <c r="P333" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q333">
         <v>7</v>
@@ -65187,10 +65211,10 @@
         <v>0.75</v>
       </c>
       <c r="AS333">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT333">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU333">
         <v>1.48</v>
@@ -65291,7 +65315,7 @@
         <v>281</v>
       </c>
       <c r="P334" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q334">
         <v>3</v>
@@ -65378,10 +65402,10 @@
         <v>1.19</v>
       </c>
       <c r="AS334">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT334">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU334">
         <v>1.49</v>
@@ -65482,7 +65506,7 @@
         <v>197</v>
       </c>
       <c r="P335" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65760,10 +65784,10 @@
         <v>1.31</v>
       </c>
       <c r="AS336">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT336">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU336">
         <v>1.62</v>
@@ -65951,7 +65975,7 @@
         <v>1.19</v>
       </c>
       <c r="AS337">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT337">
         <v>1</v>
@@ -66145,7 +66169,7 @@
         <v>1.53</v>
       </c>
       <c r="AT338">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU338">
         <v>1.49</v>
@@ -66336,7 +66360,7 @@
         <v>1.63</v>
       </c>
       <c r="AT339">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU339">
         <v>1.32</v>
@@ -66437,7 +66461,7 @@
         <v>283</v>
       </c>
       <c r="P340" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -66524,10 +66548,10 @@
         <v>1.5</v>
       </c>
       <c r="AS340">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT340">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU340">
         <v>1.79</v>
@@ -66715,7 +66739,7 @@
         <v>1.44</v>
       </c>
       <c r="AS341">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT341">
         <v>1.33</v>
@@ -67010,7 +67034,7 @@
         <v>284</v>
       </c>
       <c r="P343" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -68052,7 +68076,7 @@
         <v>1.12</v>
       </c>
       <c r="AS348">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT348">
         <v>1</v>
@@ -68246,7 +68270,7 @@
         <v>1.63</v>
       </c>
       <c r="AT349">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU349">
         <v>1.69</v>
@@ -68816,7 +68840,7 @@
         <v>1.35</v>
       </c>
       <c r="AS352">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT352">
         <v>1.33</v>
@@ -69010,7 +69034,7 @@
         <v>2.22</v>
       </c>
       <c r="AT353">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU353">
         <v>1.65</v>
@@ -69111,7 +69135,7 @@
         <v>245</v>
       </c>
       <c r="P354" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69198,10 +69222,10 @@
         <v>0.65</v>
       </c>
       <c r="AS354">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT354">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU354">
         <v>1.5</v>
@@ -69302,7 +69326,7 @@
         <v>290</v>
       </c>
       <c r="P355" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q355">
         <v>8</v>
@@ -69389,10 +69413,10 @@
         <v>1.29</v>
       </c>
       <c r="AS355">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT355">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU355">
         <v>1.81</v>
@@ -69493,7 +69517,7 @@
         <v>291</v>
       </c>
       <c r="P356" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q356">
         <v>5</v>
@@ -69580,10 +69604,10 @@
         <v>1.24</v>
       </c>
       <c r="AS356">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT356">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU356">
         <v>1.5</v>
@@ -69684,7 +69708,7 @@
         <v>93</v>
       </c>
       <c r="P357" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q357">
         <v>2</v>
@@ -69771,10 +69795,10 @@
         <v>1</v>
       </c>
       <c r="AS357">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT357">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU357">
         <v>1.64</v>
@@ -69875,7 +69899,7 @@
         <v>292</v>
       </c>
       <c r="P358" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -69965,7 +69989,7 @@
         <v>1</v>
       </c>
       <c r="AT358">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU358">
         <v>1.28</v>
@@ -70257,7 +70281,7 @@
         <v>294</v>
       </c>
       <c r="P360" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q360">
         <v>4</v>
@@ -70344,10 +70368,10 @@
         <v>1.18</v>
       </c>
       <c r="AS360">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT360">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU360">
         <v>1.52</v>
@@ -70448,7 +70472,7 @@
         <v>86</v>
       </c>
       <c r="P361" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q361">
         <v>8</v>
@@ -70535,10 +70559,10 @@
         <v>0.76</v>
       </c>
       <c r="AS361">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT361">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU361">
         <v>1.53</v>
@@ -71403,7 +71427,7 @@
         <v>298</v>
       </c>
       <c r="P366" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q366">
         <v>6</v>
@@ -71594,7 +71618,7 @@
         <v>299</v>
       </c>
       <c r="P367" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -71976,7 +72000,7 @@
         <v>173</v>
       </c>
       <c r="P369" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q369">
         <v>10</v>
@@ -72500,6 +72524,1725 @@
       </c>
       <c r="BK371">
         <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>2468665</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F372">
+        <v>38</v>
+      </c>
+      <c r="G372" t="s">
+        <v>75</v>
+      </c>
+      <c r="H372" t="s">
+        <v>81</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>2</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>2</v>
+      </c>
+      <c r="O372" t="s">
+        <v>301</v>
+      </c>
+      <c r="P372" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q372">
+        <v>6</v>
+      </c>
+      <c r="R372">
+        <v>5</v>
+      </c>
+      <c r="S372">
+        <v>11</v>
+      </c>
+      <c r="T372">
+        <v>2.15</v>
+      </c>
+      <c r="U372">
+        <v>2.61</v>
+      </c>
+      <c r="V372">
+        <v>4.92</v>
+      </c>
+      <c r="W372">
+        <v>1.25</v>
+      </c>
+      <c r="X372">
+        <v>3.72</v>
+      </c>
+      <c r="Y372">
+        <v>2.31</v>
+      </c>
+      <c r="Z372">
+        <v>1.63</v>
+      </c>
+      <c r="AA372">
+        <v>4.84</v>
+      </c>
+      <c r="AB372">
+        <v>1.16</v>
+      </c>
+      <c r="AC372">
+        <v>1.66</v>
+      </c>
+      <c r="AD372">
+        <v>4.1</v>
+      </c>
+      <c r="AE372">
+        <v>4.19</v>
+      </c>
+      <c r="AF372">
+        <v>1.02</v>
+      </c>
+      <c r="AG372">
+        <v>22.5</v>
+      </c>
+      <c r="AH372">
+        <v>1.15</v>
+      </c>
+      <c r="AI372">
+        <v>5.55</v>
+      </c>
+      <c r="AJ372">
+        <v>1.48</v>
+      </c>
+      <c r="AK372">
+        <v>2.47</v>
+      </c>
+      <c r="AL372">
+        <v>1.56</v>
+      </c>
+      <c r="AM372">
+        <v>2.36</v>
+      </c>
+      <c r="AN372">
+        <v>1.18</v>
+      </c>
+      <c r="AO372">
+        <v>1.21</v>
+      </c>
+      <c r="AP372">
+        <v>2.3</v>
+      </c>
+      <c r="AQ372">
+        <v>1.72</v>
+      </c>
+      <c r="AR372">
+        <v>0.89</v>
+      </c>
+      <c r="AS372">
+        <v>1.79</v>
+      </c>
+      <c r="AT372">
+        <v>0.84</v>
+      </c>
+      <c r="AU372">
+        <v>1.85</v>
+      </c>
+      <c r="AV372">
+        <v>1.23</v>
+      </c>
+      <c r="AW372">
+        <v>3.08</v>
+      </c>
+      <c r="AX372">
+        <v>1.3</v>
+      </c>
+      <c r="AY372">
+        <v>8</v>
+      </c>
+      <c r="AZ372">
+        <v>4.75</v>
+      </c>
+      <c r="BA372">
+        <v>1.36</v>
+      </c>
+      <c r="BB372">
+        <v>1.67</v>
+      </c>
+      <c r="BC372">
+        <v>2.15</v>
+      </c>
+      <c r="BD372">
+        <v>2.9</v>
+      </c>
+      <c r="BE372">
+        <v>4.1</v>
+      </c>
+      <c r="BF372">
+        <v>7</v>
+      </c>
+      <c r="BG372">
+        <v>3</v>
+      </c>
+      <c r="BH372">
+        <v>5</v>
+      </c>
+      <c r="BI372">
+        <v>3</v>
+      </c>
+      <c r="BJ372">
+        <v>12</v>
+      </c>
+      <c r="BK372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>2468667</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F373">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>82</v>
+      </c>
+      <c r="H373" t="s">
+        <v>71</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373">
+        <v>1</v>
+      </c>
+      <c r="O373" t="s">
+        <v>302</v>
+      </c>
+      <c r="P373" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q373">
+        <v>1</v>
+      </c>
+      <c r="R373">
+        <v>5</v>
+      </c>
+      <c r="S373">
+        <v>6</v>
+      </c>
+      <c r="T373">
+        <v>2.6</v>
+      </c>
+      <c r="U373">
+        <v>2.15</v>
+      </c>
+      <c r="V373">
+        <v>3.75</v>
+      </c>
+      <c r="W373">
+        <v>1.37</v>
+      </c>
+      <c r="X373">
+        <v>2.85</v>
+      </c>
+      <c r="Y373">
+        <v>2.7</v>
+      </c>
+      <c r="Z373">
+        <v>1.41</v>
+      </c>
+      <c r="AA373">
+        <v>6.45</v>
+      </c>
+      <c r="AB373">
+        <v>1.09</v>
+      </c>
+      <c r="AC373">
+        <v>1.95</v>
+      </c>
+      <c r="AD373">
+        <v>3.5</v>
+      </c>
+      <c r="AE373">
+        <v>3.49</v>
+      </c>
+      <c r="AF373">
+        <v>1.05</v>
+      </c>
+      <c r="AG373">
+        <v>12</v>
+      </c>
+      <c r="AH373">
+        <v>1.28</v>
+      </c>
+      <c r="AI373">
+        <v>3.5</v>
+      </c>
+      <c r="AJ373">
+        <v>1.85</v>
+      </c>
+      <c r="AK373">
+        <v>1.85</v>
+      </c>
+      <c r="AL373">
+        <v>1.72</v>
+      </c>
+      <c r="AM373">
+        <v>2.05</v>
+      </c>
+      <c r="AN373">
+        <v>1.22</v>
+      </c>
+      <c r="AO373">
+        <v>1.25</v>
+      </c>
+      <c r="AP373">
+        <v>1.78</v>
+      </c>
+      <c r="AQ373">
+        <v>1.33</v>
+      </c>
+      <c r="AR373">
+        <v>0.78</v>
+      </c>
+      <c r="AS373">
+        <v>1.42</v>
+      </c>
+      <c r="AT373">
+        <v>0.74</v>
+      </c>
+      <c r="AU373">
+        <v>1.51</v>
+      </c>
+      <c r="AV373">
+        <v>1.16</v>
+      </c>
+      <c r="AW373">
+        <v>2.67</v>
+      </c>
+      <c r="AX373">
+        <v>1.67</v>
+      </c>
+      <c r="AY373">
+        <v>7</v>
+      </c>
+      <c r="AZ373">
+        <v>2.8</v>
+      </c>
+      <c r="BA373">
+        <v>1.45</v>
+      </c>
+      <c r="BB373">
+        <v>1.85</v>
+      </c>
+      <c r="BC373">
+        <v>2.4</v>
+      </c>
+      <c r="BD373">
+        <v>3.35</v>
+      </c>
+      <c r="BE373">
+        <v>4.8</v>
+      </c>
+      <c r="BF373">
+        <v>5</v>
+      </c>
+      <c r="BG373">
+        <v>5</v>
+      </c>
+      <c r="BH373">
+        <v>2</v>
+      </c>
+      <c r="BI373">
+        <v>2</v>
+      </c>
+      <c r="BJ373">
+        <v>7</v>
+      </c>
+      <c r="BK373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>2468668</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F374">
+        <v>38</v>
+      </c>
+      <c r="G374" t="s">
+        <v>80</v>
+      </c>
+      <c r="H374" t="s">
+        <v>67</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+      <c r="M374">
+        <v>2</v>
+      </c>
+      <c r="N374">
+        <v>2</v>
+      </c>
+      <c r="O374" t="s">
+        <v>86</v>
+      </c>
+      <c r="P374" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q374">
+        <v>5</v>
+      </c>
+      <c r="R374">
+        <v>1</v>
+      </c>
+      <c r="S374">
+        <v>6</v>
+      </c>
+      <c r="T374">
+        <v>3.52</v>
+      </c>
+      <c r="U374">
+        <v>2.25</v>
+      </c>
+      <c r="V374">
+        <v>3.11</v>
+      </c>
+      <c r="W374">
+        <v>1.39</v>
+      </c>
+      <c r="X374">
+        <v>3.07</v>
+      </c>
+      <c r="Y374">
+        <v>2.88</v>
+      </c>
+      <c r="Z374">
+        <v>1.43</v>
+      </c>
+      <c r="AA374">
+        <v>6.55</v>
+      </c>
+      <c r="AB374">
+        <v>1.09</v>
+      </c>
+      <c r="AC374">
+        <v>2.74</v>
+      </c>
+      <c r="AD374">
+        <v>3.4</v>
+      </c>
+      <c r="AE374">
+        <v>2.35</v>
+      </c>
+      <c r="AF374">
+        <v>1.05</v>
+      </c>
+      <c r="AG374">
+        <v>12.5</v>
+      </c>
+      <c r="AH374">
+        <v>1.27</v>
+      </c>
+      <c r="AI374">
+        <v>3.85</v>
+      </c>
+      <c r="AJ374">
+        <v>1.78</v>
+      </c>
+      <c r="AK374">
+        <v>1.93</v>
+      </c>
+      <c r="AL374">
+        <v>1.66</v>
+      </c>
+      <c r="AM374">
+        <v>2.16</v>
+      </c>
+      <c r="AN374">
+        <v>1.57</v>
+      </c>
+      <c r="AO374">
+        <v>1.3</v>
+      </c>
+      <c r="AP374">
+        <v>1.43</v>
+      </c>
+      <c r="AQ374">
+        <v>1.78</v>
+      </c>
+      <c r="AR374">
+        <v>1.5</v>
+      </c>
+      <c r="AS374">
+        <v>1.68</v>
+      </c>
+      <c r="AT374">
+        <v>1.58</v>
+      </c>
+      <c r="AU374">
+        <v>1.42</v>
+      </c>
+      <c r="AV374">
+        <v>1.26</v>
+      </c>
+      <c r="AW374">
+        <v>2.68</v>
+      </c>
+      <c r="AX374">
+        <v>1.95</v>
+      </c>
+      <c r="AY374">
+        <v>7</v>
+      </c>
+      <c r="AZ374">
+        <v>2.25</v>
+      </c>
+      <c r="BA374">
+        <v>1.45</v>
+      </c>
+      <c r="BB374">
+        <v>1.85</v>
+      </c>
+      <c r="BC374">
+        <v>2.4</v>
+      </c>
+      <c r="BD374">
+        <v>3.35</v>
+      </c>
+      <c r="BE374">
+        <v>4.8</v>
+      </c>
+      <c r="BF374">
+        <v>6</v>
+      </c>
+      <c r="BG374">
+        <v>6</v>
+      </c>
+      <c r="BH374">
+        <v>7</v>
+      </c>
+      <c r="BI374">
+        <v>5</v>
+      </c>
+      <c r="BJ374">
+        <v>13</v>
+      </c>
+      <c r="BK374">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>2468669</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F375">
+        <v>38</v>
+      </c>
+      <c r="G375" t="s">
+        <v>79</v>
+      </c>
+      <c r="H375" t="s">
+        <v>83</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375">
+        <v>2</v>
+      </c>
+      <c r="N375">
+        <v>3</v>
+      </c>
+      <c r="O375" t="s">
+        <v>296</v>
+      </c>
+      <c r="P375" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q375">
+        <v>1</v>
+      </c>
+      <c r="R375">
+        <v>7</v>
+      </c>
+      <c r="S375">
+        <v>8</v>
+      </c>
+      <c r="T375">
+        <v>3.5</v>
+      </c>
+      <c r="U375">
+        <v>2.1</v>
+      </c>
+      <c r="V375">
+        <v>2.8</v>
+      </c>
+      <c r="W375">
+        <v>1.39</v>
+      </c>
+      <c r="X375">
+        <v>2.8</v>
+      </c>
+      <c r="Y375">
+        <v>2.75</v>
+      </c>
+      <c r="Z375">
+        <v>1.4</v>
+      </c>
+      <c r="AA375">
+        <v>6.95</v>
+      </c>
+      <c r="AB375">
+        <v>1.07</v>
+      </c>
+      <c r="AC375">
+        <v>2.89</v>
+      </c>
+      <c r="AD375">
+        <v>3.4</v>
+      </c>
+      <c r="AE375">
+        <v>2.25</v>
+      </c>
+      <c r="AF375">
+        <v>1.06</v>
+      </c>
+      <c r="AG375">
+        <v>11.5</v>
+      </c>
+      <c r="AH375">
+        <v>1.28</v>
+      </c>
+      <c r="AI375">
+        <v>3.5</v>
+      </c>
+      <c r="AJ375">
+        <v>1.85</v>
+      </c>
+      <c r="AK375">
+        <v>1.85</v>
+      </c>
+      <c r="AL375">
+        <v>1.72</v>
+      </c>
+      <c r="AM375">
+        <v>2.05</v>
+      </c>
+      <c r="AN375">
+        <v>1.63</v>
+      </c>
+      <c r="AO375">
+        <v>1.25</v>
+      </c>
+      <c r="AP375">
+        <v>1.36</v>
+      </c>
+      <c r="AQ375">
+        <v>1.5</v>
+      </c>
+      <c r="AR375">
+        <v>0.78</v>
+      </c>
+      <c r="AS375">
+        <v>1.42</v>
+      </c>
+      <c r="AT375">
+        <v>0.89</v>
+      </c>
+      <c r="AU375">
+        <v>1.61</v>
+      </c>
+      <c r="AV375">
+        <v>1.21</v>
+      </c>
+      <c r="AW375">
+        <v>2.82</v>
+      </c>
+      <c r="AX375">
+        <v>1.85</v>
+      </c>
+      <c r="AY375">
+        <v>7</v>
+      </c>
+      <c r="AZ375">
+        <v>2.4</v>
+      </c>
+      <c r="BA375">
+        <v>1.44</v>
+      </c>
+      <c r="BB375">
+        <v>1.83</v>
+      </c>
+      <c r="BC375">
+        <v>2.38</v>
+      </c>
+      <c r="BD375">
+        <v>3.3</v>
+      </c>
+      <c r="BE375">
+        <v>4.75</v>
+      </c>
+      <c r="BF375">
+        <v>4</v>
+      </c>
+      <c r="BG375">
+        <v>8</v>
+      </c>
+      <c r="BH375">
+        <v>4</v>
+      </c>
+      <c r="BI375">
+        <v>7</v>
+      </c>
+      <c r="BJ375">
+        <v>8</v>
+      </c>
+      <c r="BK375">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>2468670</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F376">
+        <v>38</v>
+      </c>
+      <c r="G376" t="s">
+        <v>78</v>
+      </c>
+      <c r="H376" t="s">
+        <v>66</v>
+      </c>
+      <c r="I376">
+        <v>2</v>
+      </c>
+      <c r="J376">
+        <v>1</v>
+      </c>
+      <c r="K376">
+        <v>3</v>
+      </c>
+      <c r="L376">
+        <v>3</v>
+      </c>
+      <c r="M376">
+        <v>3</v>
+      </c>
+      <c r="N376">
+        <v>6</v>
+      </c>
+      <c r="O376" t="s">
+        <v>303</v>
+      </c>
+      <c r="P376" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q376">
+        <v>5</v>
+      </c>
+      <c r="R376">
+        <v>2</v>
+      </c>
+      <c r="S376">
+        <v>7</v>
+      </c>
+      <c r="T376">
+        <v>4.12</v>
+      </c>
+      <c r="U376">
+        <v>2.38</v>
+      </c>
+      <c r="V376">
+        <v>2.57</v>
+      </c>
+      <c r="W376">
+        <v>1.35</v>
+      </c>
+      <c r="X376">
+        <v>3.24</v>
+      </c>
+      <c r="Y376">
+        <v>2.62</v>
+      </c>
+      <c r="Z376">
+        <v>1.5</v>
+      </c>
+      <c r="AA376">
+        <v>6.05</v>
+      </c>
+      <c r="AB376">
+        <v>1.11</v>
+      </c>
+      <c r="AC376">
+        <v>3.44</v>
+      </c>
+      <c r="AD376">
+        <v>3.55</v>
+      </c>
+      <c r="AE376">
+        <v>1.95</v>
+      </c>
+      <c r="AF376">
+        <v>1.04</v>
+      </c>
+      <c r="AG376">
+        <v>14.75</v>
+      </c>
+      <c r="AH376">
+        <v>1.22</v>
+      </c>
+      <c r="AI376">
+        <v>4.32</v>
+      </c>
+      <c r="AJ376">
+        <v>1.67</v>
+      </c>
+      <c r="AK376">
+        <v>2.07</v>
+      </c>
+      <c r="AL376">
+        <v>1.63</v>
+      </c>
+      <c r="AM376">
+        <v>2.22</v>
+      </c>
+      <c r="AN376">
+        <v>1.79</v>
+      </c>
+      <c r="AO376">
+        <v>1.28</v>
+      </c>
+      <c r="AP376">
+        <v>1.31</v>
+      </c>
+      <c r="AQ376">
+        <v>1</v>
+      </c>
+      <c r="AR376">
+        <v>1.22</v>
+      </c>
+      <c r="AS376">
+        <v>1</v>
+      </c>
+      <c r="AT376">
+        <v>1.21</v>
+      </c>
+      <c r="AU376">
+        <v>1.29</v>
+      </c>
+      <c r="AV376">
+        <v>1.21</v>
+      </c>
+      <c r="AW376">
+        <v>2.5</v>
+      </c>
+      <c r="AX376">
+        <v>2.38</v>
+      </c>
+      <c r="AY376">
+        <v>6.5</v>
+      </c>
+      <c r="AZ376">
+        <v>1.91</v>
+      </c>
+      <c r="BA376">
+        <v>1.36</v>
+      </c>
+      <c r="BB376">
+        <v>1.93</v>
+      </c>
+      <c r="BC376">
+        <v>2.12</v>
+      </c>
+      <c r="BD376">
+        <v>2.88</v>
+      </c>
+      <c r="BE376">
+        <v>4.1</v>
+      </c>
+      <c r="BF376">
+        <v>5</v>
+      </c>
+      <c r="BG376">
+        <v>9</v>
+      </c>
+      <c r="BH376">
+        <v>2</v>
+      </c>
+      <c r="BI376">
+        <v>7</v>
+      </c>
+      <c r="BJ376">
+        <v>7</v>
+      </c>
+      <c r="BK376">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>2468671</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F377">
+        <v>38</v>
+      </c>
+      <c r="G377" t="s">
+        <v>77</v>
+      </c>
+      <c r="H377" t="s">
+        <v>84</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>1</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+      <c r="O377" t="s">
+        <v>304</v>
+      </c>
+      <c r="P377" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q377">
+        <v>4</v>
+      </c>
+      <c r="R377">
+        <v>6</v>
+      </c>
+      <c r="S377">
+        <v>10</v>
+      </c>
+      <c r="T377">
+        <v>3.1</v>
+      </c>
+      <c r="U377">
+        <v>2.1</v>
+      </c>
+      <c r="V377">
+        <v>3.15</v>
+      </c>
+      <c r="W377">
+        <v>1.38</v>
+      </c>
+      <c r="X377">
+        <v>2.85</v>
+      </c>
+      <c r="Y377">
+        <v>2.7</v>
+      </c>
+      <c r="Z377">
+        <v>1.42</v>
+      </c>
+      <c r="AA377">
+        <v>7.25</v>
+      </c>
+      <c r="AB377">
+        <v>1.09</v>
+      </c>
+      <c r="AC377">
+        <v>2.5</v>
+      </c>
+      <c r="AD377">
+        <v>3.4</v>
+      </c>
+      <c r="AE377">
+        <v>2.56</v>
+      </c>
+      <c r="AF377">
+        <v>1.05</v>
+      </c>
+      <c r="AG377">
+        <v>12.25</v>
+      </c>
+      <c r="AH377">
+        <v>1.28</v>
+      </c>
+      <c r="AI377">
+        <v>3.72</v>
+      </c>
+      <c r="AJ377">
+        <v>1.8</v>
+      </c>
+      <c r="AK377">
+        <v>1.9</v>
+      </c>
+      <c r="AL377">
+        <v>1.68</v>
+      </c>
+      <c r="AM377">
+        <v>2.1</v>
+      </c>
+      <c r="AN377">
+        <v>1.4</v>
+      </c>
+      <c r="AO377">
+        <v>1.25</v>
+      </c>
+      <c r="AP377">
+        <v>1.47</v>
+      </c>
+      <c r="AQ377">
+        <v>1.17</v>
+      </c>
+      <c r="AR377">
+        <v>1.11</v>
+      </c>
+      <c r="AS377">
+        <v>1.26</v>
+      </c>
+      <c r="AT377">
+        <v>1.05</v>
+      </c>
+      <c r="AU377">
+        <v>1.51</v>
+      </c>
+      <c r="AV377">
+        <v>1.36</v>
+      </c>
+      <c r="AW377">
+        <v>2.87</v>
+      </c>
+      <c r="AX377">
+        <v>2.2</v>
+      </c>
+      <c r="AY377">
+        <v>7</v>
+      </c>
+      <c r="AZ377">
+        <v>2</v>
+      </c>
+      <c r="BA377">
+        <v>1.41</v>
+      </c>
+      <c r="BB377">
+        <v>1.9</v>
+      </c>
+      <c r="BC377">
+        <v>2.28</v>
+      </c>
+      <c r="BD377">
+        <v>3.15</v>
+      </c>
+      <c r="BE377">
+        <v>4.5</v>
+      </c>
+      <c r="BF377">
+        <v>7</v>
+      </c>
+      <c r="BG377">
+        <v>2</v>
+      </c>
+      <c r="BH377">
+        <v>4</v>
+      </c>
+      <c r="BI377">
+        <v>5</v>
+      </c>
+      <c r="BJ377">
+        <v>11</v>
+      </c>
+      <c r="BK377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>2468682</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F378">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>69</v>
+      </c>
+      <c r="H378" t="s">
+        <v>74</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378">
+        <v>2</v>
+      </c>
+      <c r="L378">
+        <v>3</v>
+      </c>
+      <c r="M378">
+        <v>1</v>
+      </c>
+      <c r="N378">
+        <v>4</v>
+      </c>
+      <c r="O378" t="s">
+        <v>305</v>
+      </c>
+      <c r="P378" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q378">
+        <v>3</v>
+      </c>
+      <c r="R378">
+        <v>5</v>
+      </c>
+      <c r="S378">
+        <v>8</v>
+      </c>
+      <c r="T378">
+        <v>3.39</v>
+      </c>
+      <c r="U378">
+        <v>2.36</v>
+      </c>
+      <c r="V378">
+        <v>3.03</v>
+      </c>
+      <c r="W378">
+        <v>1.34</v>
+      </c>
+      <c r="X378">
+        <v>3.33</v>
+      </c>
+      <c r="Y378">
+        <v>2.63</v>
+      </c>
+      <c r="Z378">
+        <v>1.5</v>
+      </c>
+      <c r="AA378">
+        <v>6</v>
+      </c>
+      <c r="AB378">
+        <v>1.11</v>
+      </c>
+      <c r="AC378">
+        <v>2.67</v>
+      </c>
+      <c r="AD378">
+        <v>3.4</v>
+      </c>
+      <c r="AE378">
+        <v>2.4</v>
+      </c>
+      <c r="AF378">
+        <v>1.04</v>
+      </c>
+      <c r="AG378">
+        <v>14.5</v>
+      </c>
+      <c r="AH378">
+        <v>1.23</v>
+      </c>
+      <c r="AI378">
+        <v>4.17</v>
+      </c>
+      <c r="AJ378">
+        <v>1.68</v>
+      </c>
+      <c r="AK378">
+        <v>2.06</v>
+      </c>
+      <c r="AL378">
+        <v>1.59</v>
+      </c>
+      <c r="AM378">
+        <v>2.29</v>
+      </c>
+      <c r="AN378">
+        <v>1.57</v>
+      </c>
+      <c r="AO378">
+        <v>1.29</v>
+      </c>
+      <c r="AP378">
+        <v>1.44</v>
+      </c>
+      <c r="AQ378">
+        <v>1.44</v>
+      </c>
+      <c r="AR378">
+        <v>1.17</v>
+      </c>
+      <c r="AS378">
+        <v>1.53</v>
+      </c>
+      <c r="AT378">
+        <v>1.11</v>
+      </c>
+      <c r="AU378">
+        <v>1.51</v>
+      </c>
+      <c r="AV378">
+        <v>1.46</v>
+      </c>
+      <c r="AW378">
+        <v>2.97</v>
+      </c>
+      <c r="AX378">
+        <v>2.3</v>
+      </c>
+      <c r="AY378">
+        <v>7</v>
+      </c>
+      <c r="AZ378">
+        <v>1.91</v>
+      </c>
+      <c r="BA378">
+        <v>1.47</v>
+      </c>
+      <c r="BB378">
+        <v>1.88</v>
+      </c>
+      <c r="BC378">
+        <v>2.45</v>
+      </c>
+      <c r="BD378">
+        <v>3.4</v>
+      </c>
+      <c r="BE378">
+        <v>5</v>
+      </c>
+      <c r="BF378">
+        <v>6</v>
+      </c>
+      <c r="BG378">
+        <v>7</v>
+      </c>
+      <c r="BH378">
+        <v>2</v>
+      </c>
+      <c r="BI378">
+        <v>7</v>
+      </c>
+      <c r="BJ378">
+        <v>8</v>
+      </c>
+      <c r="BK378">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>2468683</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F379">
+        <v>38</v>
+      </c>
+      <c r="G379" t="s">
+        <v>68</v>
+      </c>
+      <c r="H379" t="s">
+        <v>65</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>1</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>1</v>
+      </c>
+      <c r="O379" t="s">
+        <v>145</v>
+      </c>
+      <c r="P379" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q379">
+        <v>2</v>
+      </c>
+      <c r="R379">
+        <v>5</v>
+      </c>
+      <c r="S379">
+        <v>7</v>
+      </c>
+      <c r="T379">
+        <v>2.8</v>
+      </c>
+      <c r="U379">
+        <v>2</v>
+      </c>
+      <c r="V379">
+        <v>4</v>
+      </c>
+      <c r="W379">
+        <v>1.49</v>
+      </c>
+      <c r="X379">
+        <v>2.45</v>
+      </c>
+      <c r="Y379">
+        <v>3.25</v>
+      </c>
+      <c r="Z379">
+        <v>1.3</v>
+      </c>
+      <c r="AA379">
+        <v>8.9</v>
+      </c>
+      <c r="AB379">
+        <v>1.04</v>
+      </c>
+      <c r="AC379">
+        <v>2.07</v>
+      </c>
+      <c r="AD379">
+        <v>3.2</v>
+      </c>
+      <c r="AE379">
+        <v>3.46</v>
+      </c>
+      <c r="AF379">
+        <v>1.09</v>
+      </c>
+      <c r="AG379">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH379">
+        <v>1.42</v>
+      </c>
+      <c r="AI379">
+        <v>2.75</v>
+      </c>
+      <c r="AJ379">
+        <v>2.25</v>
+      </c>
+      <c r="AK379">
+        <v>1.57</v>
+      </c>
+      <c r="AL379">
+        <v>1.95</v>
+      </c>
+      <c r="AM379">
+        <v>1.78</v>
+      </c>
+      <c r="AN379">
+        <v>1.25</v>
+      </c>
+      <c r="AO379">
+        <v>1.28</v>
+      </c>
+      <c r="AP379">
+        <v>1.68</v>
+      </c>
+      <c r="AQ379">
+        <v>2.06</v>
+      </c>
+      <c r="AR379">
+        <v>0.78</v>
+      </c>
+      <c r="AS379">
+        <v>2.11</v>
+      </c>
+      <c r="AT379">
+        <v>0.74</v>
+      </c>
+      <c r="AU379">
+        <v>1.58</v>
+      </c>
+      <c r="AV379">
+        <v>1.29</v>
+      </c>
+      <c r="AW379">
+        <v>2.87</v>
+      </c>
+      <c r="AX379">
+        <v>1.6</v>
+      </c>
+      <c r="AY379">
+        <v>7</v>
+      </c>
+      <c r="AZ379">
+        <v>3</v>
+      </c>
+      <c r="BA379">
+        <v>1.45</v>
+      </c>
+      <c r="BB379">
+        <v>1.85</v>
+      </c>
+      <c r="BC379">
+        <v>2.4</v>
+      </c>
+      <c r="BD379">
+        <v>3.35</v>
+      </c>
+      <c r="BE379">
+        <v>4.8</v>
+      </c>
+      <c r="BF379">
+        <v>4</v>
+      </c>
+      <c r="BG379">
+        <v>3</v>
+      </c>
+      <c r="BH379">
+        <v>3</v>
+      </c>
+      <c r="BI379">
+        <v>4</v>
+      </c>
+      <c r="BJ379">
+        <v>7</v>
+      </c>
+      <c r="BK379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>2468666</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45079.65625</v>
+      </c>
+      <c r="F380">
+        <v>38</v>
+      </c>
+      <c r="G380" t="s">
+        <v>72</v>
+      </c>
+      <c r="H380" t="s">
+        <v>73</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>1</v>
+      </c>
+      <c r="L380">
+        <v>3</v>
+      </c>
+      <c r="M380">
+        <v>2</v>
+      </c>
+      <c r="N380">
+        <v>5</v>
+      </c>
+      <c r="O380" t="s">
+        <v>306</v>
+      </c>
+      <c r="P380" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q380">
+        <v>3</v>
+      </c>
+      <c r="R380">
+        <v>4</v>
+      </c>
+      <c r="S380">
+        <v>7</v>
+      </c>
+      <c r="T380">
+        <v>1.97</v>
+      </c>
+      <c r="U380">
+        <v>2.55</v>
+      </c>
+      <c r="V380">
+        <v>6.56</v>
+      </c>
+      <c r="W380">
+        <v>1.33</v>
+      </c>
+      <c r="X380">
+        <v>3.36</v>
+      </c>
+      <c r="Y380">
+        <v>2.59</v>
+      </c>
+      <c r="Z380">
+        <v>1.51</v>
+      </c>
+      <c r="AA380">
+        <v>5.85</v>
+      </c>
+      <c r="AB380">
+        <v>1.12</v>
+      </c>
+      <c r="AC380">
+        <v>1.45</v>
+      </c>
+      <c r="AD380">
+        <v>4.4</v>
+      </c>
+      <c r="AE380">
+        <v>5.95</v>
+      </c>
+      <c r="AF380">
+        <v>1.03</v>
+      </c>
+      <c r="AG380">
+        <v>16</v>
+      </c>
+      <c r="AH380">
+        <v>1.22</v>
+      </c>
+      <c r="AI380">
+        <v>4.3</v>
+      </c>
+      <c r="AJ380">
+        <v>1.67</v>
+      </c>
+      <c r="AK380">
+        <v>2.07</v>
+      </c>
+      <c r="AL380">
+        <v>1.88</v>
+      </c>
+      <c r="AM380">
+        <v>1.88</v>
+      </c>
+      <c r="AN380">
+        <v>1.09</v>
+      </c>
+      <c r="AO380">
+        <v>1.18</v>
+      </c>
+      <c r="AP380">
+        <v>2.84</v>
+      </c>
+      <c r="AQ380">
+        <v>1.89</v>
+      </c>
+      <c r="AR380">
+        <v>1.28</v>
+      </c>
+      <c r="AS380">
+        <v>1.95</v>
+      </c>
+      <c r="AT380">
+        <v>1.21</v>
+      </c>
+      <c r="AU380">
+        <v>1.63</v>
+      </c>
+      <c r="AV380">
+        <v>1.41</v>
+      </c>
+      <c r="AW380">
+        <v>3.04</v>
+      </c>
+      <c r="AX380">
+        <v>1.38</v>
+      </c>
+      <c r="AY380">
+        <v>8</v>
+      </c>
+      <c r="AZ380">
+        <v>4</v>
+      </c>
+      <c r="BA380">
+        <v>1.43</v>
+      </c>
+      <c r="BB380">
+        <v>1.8</v>
+      </c>
+      <c r="BC380">
+        <v>2.33</v>
+      </c>
+      <c r="BD380">
+        <v>3.25</v>
+      </c>
+      <c r="BE380">
+        <v>4.6</v>
+      </c>
+      <c r="BF380">
+        <v>7</v>
+      </c>
+      <c r="BG380">
+        <v>5</v>
+      </c>
+      <c r="BH380">
+        <v>6</v>
+      </c>
+      <c r="BI380">
+        <v>7</v>
+      </c>
+      <c r="BJ380">
+        <v>13</v>
+      </c>
+      <c r="BK380">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
